--- a/opm_hero_property/heroes/102.xlsx
+++ b/opm_hero_property/heroes/102.xlsx
@@ -996,12 +996,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,43275;31,8196;41,2722</t>
+          <t>21,47603;31,9015;41,2995</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,43275;31,8196;41,2722</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,5229;31,984;41,353</t>
+          <t>21,5751;31,1082;41,388</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,5229;31,984;41,353</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1025,22 +1025,22 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>43275.925</v>
+        <v>47603.5175</v>
       </c>
       <c r="O2" t="n">
-        <v>8196.335000000001</v>
+        <v>9015.968499999999</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.895</v>
+        <v>2995.1845</v>
       </c>
       <c r="Q2" t="n">
-        <v>43275.925</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8196.335000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.895</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1052,22 +1052,22 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5229.070000000001</v>
+        <v>5751.977</v>
       </c>
       <c r="X2" t="n">
-        <v>984.5150000000001</v>
+        <v>1082.9665</v>
       </c>
       <c r="Y2" t="n">
-        <v>353.535</v>
+        <v>388.8885</v>
       </c>
       <c r="Z2" t="n">
-        <v>5229.070000000001</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>984.5150000000001</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.535</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,43280;31,8197;41,2723</t>
+          <t>21,47608;31,9017;41,2995</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,43280;31,8197;41,2723</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,5233;31,985;41,353</t>
+          <t>21,5756;31,1084;41,389</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,5233;31,985;41,353</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>43280.16</v>
+        <v>47608.176</v>
       </c>
       <c r="O3" t="n">
-        <v>8197.560000000001</v>
+        <v>9017.316000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>2723.175</v>
+        <v>2995.4925</v>
       </c>
       <c r="Q3" t="n">
-        <v>43280.16</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8197.560000000001</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2723.175</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5233.305</v>
+        <v>5756.6355</v>
       </c>
       <c r="X3" t="n">
-        <v>985.7400000000001</v>
+        <v>1084.314</v>
       </c>
       <c r="Y3" t="n">
-        <v>353.8150000000001</v>
+        <v>389.1965</v>
       </c>
       <c r="Z3" t="n">
-        <v>5233.305</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>985.7400000000001</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.8150000000001</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1210,12 +1210,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,46162;31,9057;41,2975</t>
+          <t>21,50778;31,9963;41,3272</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,46162;31,9057;41,2975</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,5543;31,1078;41,381</t>
+          <t>21,6098;31,1186;41,419</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,5543;31,1078;41,381</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1239,22 +1239,22 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>46162.651052</v>
+        <v>50778.9161572</v>
       </c>
       <c r="O4" t="n">
-        <v>9057.513332</v>
+        <v>9963.2646652</v>
       </c>
       <c r="P4" t="n">
-        <v>2975.180397000001</v>
+        <v>3272.6984367</v>
       </c>
       <c r="Q4" t="n">
-        <v>46162.651052</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>9057.513332</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2975.180397000001</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>5543.828654000001</v>
+        <v>6098.211519400001</v>
       </c>
       <c r="X4" t="n">
-        <v>1078.355684</v>
+        <v>1186.1912524</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.6789410000001</v>
+        <v>419.8468351</v>
       </c>
       <c r="Z4" t="n">
-        <v>5543.828654000001</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1078.355684</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.6789410000001</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1317,12 +1317,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,49424;31,10032;41,3261</t>
+          <t>21,54366;31,11035;41,3587</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,49424;31,10032;41,3261</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,5894;31,1183;41,413</t>
+          <t>21,6484;31,1301;41,454</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,5894;31,1183;41,413</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1346,22 +1346,22 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>49424.12370700001</v>
+        <v>54366.5360777</v>
       </c>
       <c r="O5" t="n">
-        <v>10032.071385</v>
+        <v>11035.2785235</v>
       </c>
       <c r="P5" t="n">
-        <v>3261.0147955</v>
+        <v>3587.11627505</v>
       </c>
       <c r="Q5" t="n">
-        <v>49424.12370700001</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>10032.071385</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3261.0147955</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>5894.716901500001</v>
+        <v>6484.18859165</v>
       </c>
       <c r="X5" t="n">
-        <v>1183.168245</v>
+        <v>1301.4850695</v>
       </c>
       <c r="Y5" t="n">
-        <v>413.2810115</v>
+        <v>454.60911265</v>
       </c>
       <c r="Z5" t="n">
-        <v>5894.716901500001</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1183.168245</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>413.2810115</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53265;31,11177;41,3597</t>
+          <t>21,58591;31,12295;41,3956</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53265;31,11177;41,3597</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6307;31,1306;41,450</t>
+          <t>21,6938;31,1436;41,495</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6307;31,1306;41,450</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1453,22 +1453,22 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53265.115834</v>
+        <v>58591.6274174</v>
       </c>
       <c r="O6" t="n">
-        <v>11177.834444</v>
+        <v>12295.6178884</v>
       </c>
       <c r="P6" t="n">
-        <v>3597.1410545</v>
+        <v>3956.85515995</v>
       </c>
       <c r="Q6" t="n">
-        <v>53265.115834</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11177.834444</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3597.1410545</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1480,22 +1480,22 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6307.687393000001</v>
+        <v>6938.4561323</v>
       </c>
       <c r="X6" t="n">
-        <v>1306.295228</v>
+        <v>1436.9247508</v>
       </c>
       <c r="Y6" t="n">
-        <v>450.3940385</v>
+        <v>495.43344235</v>
       </c>
       <c r="Z6" t="n">
-        <v>6307.687393000001</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1306.295228</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>450.3940385</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,59488;31,12497;41,4299</t>
+          <t>21,65437;31,13747;41,4729</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,59488;31,12497;41,4299</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6983;31,1449;41,528</t>
+          <t>21,7681;31,1594;41,581</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6983;31,1449;41,528</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1560,22 +1560,22 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>59488.18260000001</v>
+        <v>65437.00086</v>
       </c>
       <c r="O7" t="n">
-        <v>12497.5345845</v>
+        <v>13747.28804295</v>
       </c>
       <c r="P7" t="n">
-        <v>4299.293967500001</v>
+        <v>4729.22336425</v>
       </c>
       <c r="Q7" t="n">
-        <v>59488.18260000001</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12497.5345845</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4299.293967500001</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1587,22 +1587,22 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6983.5227</v>
+        <v>7681.87497</v>
       </c>
       <c r="X7" t="n">
-        <v>1449.7475265</v>
+        <v>1594.72227915</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.4575275000001</v>
+        <v>581.3032802499999</v>
       </c>
       <c r="Z7" t="n">
-        <v>6983.5227</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1449.7475265</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>528.4575275000001</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1638,12 +1638,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,67534;31,13988;41,5270</t>
+          <t>21,74287;31,15387;41,5797</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,67534;31,13988;41,5270</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7853;31,1610;41,636</t>
+          <t>21,8639;31,1771;41,699</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7853;31,1610;41,636</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1667,22 +1667,22 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>67534.124322</v>
+        <v>74287.5367542</v>
       </c>
       <c r="O8" t="n">
-        <v>13988.5468065</v>
+        <v>15387.40148715</v>
       </c>
       <c r="P8" t="n">
-        <v>5270.4473255</v>
+        <v>5797.492058049999</v>
       </c>
       <c r="Q8" t="n">
-        <v>67534.124322</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13988.5468065</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5270.4473255</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7853.827569000001</v>
+        <v>8639.2103259</v>
       </c>
       <c r="X8" t="n">
-        <v>1610.9001405</v>
+        <v>1771.99015455</v>
       </c>
       <c r="Y8" t="n">
-        <v>636.2161015</v>
+        <v>699.83771165</v>
       </c>
       <c r="Z8" t="n">
-        <v>7853.827569000001</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1610.9001405</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>636.2161015</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -1745,12 +1745,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,77883;31,15708;41,6577</t>
+          <t>21,85671;31,17279;41,7235</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,77883;31,15708;41,6577</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1760,12 +1760,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8969;31,1795;41,780</t>
+          <t>21,9865;31,1975;41,858</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8969;31,1795;41,780</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1774,22 +1774,22 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>77883.270451</v>
+        <v>85671.59749609999</v>
       </c>
       <c r="O9" t="n">
-        <v>15708.2434705</v>
+        <v>17279.06781755</v>
       </c>
       <c r="P9" t="n">
-        <v>6577.481942500001</v>
+        <v>7235.230136749999</v>
       </c>
       <c r="Q9" t="n">
-        <v>77883.270451</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15708.2434705</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>6577.481942500001</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1801,22 +1801,22 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8969.0019895</v>
+        <v>9865.90218845</v>
       </c>
       <c r="X9" t="n">
-        <v>1795.9215085</v>
+        <v>1975.51365935</v>
       </c>
       <c r="Y9" t="n">
-        <v>780.8427025000001</v>
+        <v>858.92697275</v>
       </c>
       <c r="Z9" t="n">
-        <v>8969.0019895</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1795.9215085</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>780.8427025000001</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,85635;31,16625;41,7665</t>
+          <t>21,94199;31,18287;41,8432</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,85635;31,16625;41,7665</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1867,12 +1867,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9804;31,1894;41,901</t>
+          <t>21,10784;31,2083;41,991</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9804;31,1894;41,901</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1881,22 +1881,22 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>85635.58493700001</v>
+        <v>94199.14343069999</v>
       </c>
       <c r="O10" t="n">
-        <v>16625.394163</v>
+        <v>18287.9335793</v>
       </c>
       <c r="P10" t="n">
-        <v>7665.772975000001</v>
+        <v>8432.3502725</v>
       </c>
       <c r="Q10" t="n">
-        <v>85635.58493700001</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16625.394163</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>7665.772975000001</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9804.398236500003</v>
+        <v>10784.83806015</v>
       </c>
       <c r="X10" t="n">
-        <v>1894.530631</v>
+        <v>2083.9836941</v>
       </c>
       <c r="Y10" t="n">
-        <v>901.2501750000001</v>
+        <v>991.3751925</v>
       </c>
       <c r="Z10" t="n">
-        <v>9804.398236500003</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1894.530631</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>901.2501750000001</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -1959,12 +1959,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,95091;31,17713;41,9002</t>
+          <t>21,104601;31,19485;41,9902</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,95091;31,17713;41,9002</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1974,12 +1974,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10821;31,2011;41,1048</t>
+          <t>21,11904;31,2212;41,1153</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10821;31,2011;41,1048</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1988,22 +1988,22 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>95091.97522300002</v>
+        <v>104601.1727453</v>
       </c>
       <c r="O11" t="n">
-        <v>17713.6448615</v>
+        <v>19485.00934765</v>
       </c>
       <c r="P11" t="n">
-        <v>9002.2040815</v>
+        <v>9902.42448965</v>
       </c>
       <c r="Q11" t="n">
-        <v>95091.97522300002</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17713.6448615</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9002.2040815</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -2015,22 +2015,22 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10821.9960835</v>
+        <v>11904.19569185</v>
       </c>
       <c r="X11" t="n">
-        <v>2011.3491755</v>
+        <v>2212.48409305</v>
       </c>
       <c r="Y11" t="n">
-        <v>1048.9733695</v>
+        <v>1153.87070645</v>
       </c>
       <c r="Z11" t="n">
-        <v>10821.9960835</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2011.3491755</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1048.9733695</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -2066,12 +2066,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,112513;31,20005;41,11380</t>
+          <t>21,123765;31,22006;41,12518</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,112513;31,20005;41,11380</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12694;31,2257;41,1311</t>
+          <t>21,13963;31,2482;41,1442</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12694;31,2257;41,1311</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2095,22 +2095,22 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>112513.944172</v>
+        <v>123765.3385892</v>
       </c>
       <c r="O12" t="n">
-        <v>20005.558055</v>
+        <v>22006.1138605</v>
       </c>
       <c r="P12" t="n">
-        <v>11380.1357775</v>
+        <v>12518.14935525</v>
       </c>
       <c r="Q12" t="n">
-        <v>112513.944172</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20005.558055</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>11380.1357775</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -2122,22 +2122,22 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12694.215394</v>
+        <v>13963.6369334</v>
       </c>
       <c r="X12" t="n">
-        <v>2257.269035</v>
+        <v>2482.9959385</v>
       </c>
       <c r="Y12" t="n">
-        <v>1311.5404575</v>
+        <v>1442.69450325</v>
       </c>
       <c r="Z12" t="n">
-        <v>12694.215394</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2257.269035</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1311.5404575</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2173,12 +2173,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,115214;31,20466;41,11717</t>
+          <t>21,126735;31,22512;41,12889</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,115214;31,20466;41,11717</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,12993;31,2308;41,1349</t>
+          <t>21,14292;31,2539;41,1484</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,12993;31,2308;41,1349</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2202,22 +2202,22 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>115214.108009</v>
+        <v>126735.5188099</v>
       </c>
       <c r="O13" t="n">
-        <v>20466.181939</v>
+        <v>22512.8001329</v>
       </c>
       <c r="P13" t="n">
-        <v>11717.2770365</v>
+        <v>12889.00474015</v>
       </c>
       <c r="Q13" t="n">
-        <v>115214.108009</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20466.181939</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>11717.2770365</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2229,22 +2229,22 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12993.6226805</v>
+        <v>14292.98494855</v>
       </c>
       <c r="X13" t="n">
-        <v>2308.261543000001</v>
+        <v>2539.0876973</v>
       </c>
       <c r="Y13" t="n">
-        <v>1349.6684845</v>
+        <v>1484.63533295</v>
       </c>
       <c r="Z13" t="n">
-        <v>12993.6226805</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2308.261543000001</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1349.6684845</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2280,12 +2280,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,117910;31,20926;41,12054</t>
+          <t>21,129701;31,23018;41,13259</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,117910;31,20926;41,12054</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2295,12 +2295,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13292;31,2359;41,1387</t>
+          <t>21,14621;31,2595;41,1526</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13292;31,2359;41,1387</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>117910.049019</v>
+        <v>129701.0539209</v>
       </c>
       <c r="O14" t="n">
-        <v>20926.03374750001</v>
+        <v>23018.63712225</v>
       </c>
       <c r="P14" t="n">
-        <v>12054.3832955</v>
+        <v>13259.82162505</v>
       </c>
       <c r="Q14" t="n">
-        <v>117910.049019</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20926.03374750001</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12054.3832955</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2336,22 +2336,22 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13292.6118255</v>
+        <v>14621.87300805</v>
       </c>
       <c r="X14" t="n">
-        <v>2359.2031575</v>
+        <v>2595.12347325</v>
       </c>
       <c r="Y14" t="n">
-        <v>1387.7615115</v>
+        <v>1526.53766265</v>
       </c>
       <c r="Z14" t="n">
-        <v>13292.6118255</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2359.2031575</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1387.7615115</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2387,12 +2387,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,120610;31,21386;41,12391</t>
+          <t>21,132671;31,23525;41,13630</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,120610;31,21386;41,12391</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13592;31,2410;41,1425</t>
+          <t>21,14951;31,2651;41,1568</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13592;31,2410;41,1425</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2416,22 +2416,22 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>120610.212856</v>
+        <v>132671.2341416</v>
       </c>
       <c r="O15" t="n">
-        <v>21386.6926315</v>
+        <v>23525.36189465</v>
       </c>
       <c r="P15" t="n">
-        <v>12391.5245545</v>
+        <v>13630.67700995</v>
       </c>
       <c r="Q15" t="n">
-        <v>120610.212856</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21386.6926315</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>12391.5245545</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2443,22 +2443,22 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13592.019112</v>
+        <v>14951.2210232</v>
       </c>
       <c r="X15" t="n">
-        <v>2410.2306655</v>
+        <v>2651.25373205</v>
       </c>
       <c r="Y15" t="n">
-        <v>1425.8895385</v>
+        <v>1568.47849235</v>
       </c>
       <c r="Z15" t="n">
-        <v>13592.019112</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2410.2306655</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1425.8895385</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2494,12 +2494,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,123310;31,21846;41,12728</t>
+          <t>21,135641;31,24031;41,14001</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,123310;31,21846;41,12728</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,13891;31,2461;41,1463</t>
+          <t>21,15280;31,2707;41,1610</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,13891;31,2461;41,1463</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>123310.411693</v>
+        <v>135641.4528623</v>
       </c>
       <c r="O16" t="n">
-        <v>21846.50944000001</v>
+        <v>24031.160384</v>
       </c>
       <c r="P16" t="n">
-        <v>12728.6308135</v>
+        <v>14001.49389485</v>
       </c>
       <c r="Q16" t="n">
-        <v>123310.411693</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21846.50944000001</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12728.6308135</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2550,22 +2550,22 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>13891.4613985</v>
+        <v>15280.60753835</v>
       </c>
       <c r="X16" t="n">
-        <v>2461.13728</v>
+        <v>2707.251008</v>
       </c>
       <c r="Y16" t="n">
-        <v>1463.9825655</v>
+        <v>1610.38082205</v>
       </c>
       <c r="Z16" t="n">
-        <v>13891.4613985</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2461.13728</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1463.9825655</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,126006;31,22306;41,13065</t>
+          <t>21,138606;31,24536;41,14372</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,126006;31,22306;41,13065</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14190;31,2512;41,1502</t>
+          <t>21,15609;31,2763;41,1652</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14190;31,2512;41,1502</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2630,22 +2630,22 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>126006.317703</v>
+        <v>138606.9494733</v>
       </c>
       <c r="O17" t="n">
-        <v>22306.3612485</v>
+        <v>24536.99737335</v>
       </c>
       <c r="P17" t="n">
-        <v>13065.7720725</v>
+        <v>14372.34927975</v>
       </c>
       <c r="Q17" t="n">
-        <v>126006.317703</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>22306.3612485</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13065.7720725</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2657,22 +2657,22 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14190.4155435</v>
+        <v>15609.45709785</v>
       </c>
       <c r="X17" t="n">
-        <v>2512.0788945</v>
+        <v>2763.28678395</v>
       </c>
       <c r="Y17" t="n">
-        <v>1502.1105925</v>
+        <v>1652.32165175</v>
       </c>
       <c r="Z17" t="n">
-        <v>14190.4155435</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2512.0788945</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1502.1105925</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -5476,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="M2" t="n">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -5530,10 +5530,10 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,0;31,2008;41,907;22,0;32,125;42,142</t>
+          <t>21,0;31,2008;41,907;22,0;32,81;42,91</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,973;41,487;22,0;32,109;42,124</t>
+          <t>21,0;31,973;41,487;22,0;32,70;42,80</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -5619,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="M3" t="n">
-        <v>284</v>
+        <v>183</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -5673,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="AE3" t="n">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,0;31,3858;41,1915;22,0;32,250;42,284</t>
+          <t>21,0;31,3858;41,1915;22,0;32,162;42,183</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,1079;41,595;22,0;32,219;42,249</t>
+          <t>21,0;31,1079;41,595;22,0;32,141;42,160</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -5762,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376</v>
+        <v>243</v>
       </c>
       <c r="M4" t="n">
-        <v>427</v>
+        <v>275</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -5816,10 +5816,10 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="AE4" t="n">
-        <v>373</v>
+        <v>241</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,0;31,5514;41,3046;22,0;32,376;42,427</t>
+          <t>21,0;31,5514;41,3046;22,0;32,243;42,275</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,1264;41,779;22,0;32,329;42,373</t>
+          <t>21,0;31,1264;41,779;22,0;32,212;42,241</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -5905,10 +5905,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>501</v>
+        <v>324</v>
       </c>
       <c r="M5" t="n">
-        <v>569</v>
+        <v>367</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -5959,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>438</v>
+        <v>283</v>
       </c>
       <c r="AE5" t="n">
-        <v>498</v>
+        <v>321</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,0;31,7323;41,4091;22,0;32,501;42,569</t>
+          <t>21,0;31,7323;41,4091;22,0;32,324;42,367</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,1354;41,847;22,0;32,438;42,498</t>
+          <t>21,0;31,1354;41,847;22,0;32,283;42,321</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -6048,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>626</v>
+        <v>405</v>
       </c>
       <c r="M6" t="n">
-        <v>712</v>
+        <v>459</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -6102,10 +6102,10 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>548</v>
+        <v>354</v>
       </c>
       <c r="AE6" t="n">
-        <v>623</v>
+        <v>402</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,0;31,9121;41,5151;22,0;32,626;42,712</t>
+          <t>21,0;31,9121;41,5151;22,0;32,405;42,459</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,1449;41,919;22,0;32,548;42,623</t>
+          <t>21,0;31,1449;41,919;22,0;32,354;42,402</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -6191,10 +6191,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>752</v>
+        <v>486</v>
       </c>
       <c r="M7" t="n">
-        <v>854</v>
+        <v>551</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -6245,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>658</v>
+        <v>425</v>
       </c>
       <c r="AE7" t="n">
-        <v>747</v>
+        <v>482</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,0;31,10624;41,6668;22,0;32,752;42,854</t>
+          <t>21,0;31,10624;41,6668;22,0;32,486;42,551</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,1551;41,997;22,0;32,658;42,747</t>
+          <t>21,0;31,1551;41,997;22,0;32,425;42,482</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>877</v>
+        <v>567</v>
       </c>
       <c r="M8" t="n">
-        <v>996</v>
+        <v>643</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -6388,10 +6388,10 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>768</v>
+        <v>496</v>
       </c>
       <c r="AE8" t="n">
-        <v>872</v>
+        <v>563</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,0;31,12119;41,8187;22,0;32,877;42,996</t>
+          <t>21,0;31,12119;41,8187;22,0;32,567;42,643</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,1659;41,1079;22,0;32,768;42,872</t>
+          <t>21,0;31,1659;41,1079;22,0;32,496;42,563</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -6477,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>987</v>
+        <v>637</v>
       </c>
       <c r="M9" t="n">
-        <v>1121</v>
+        <v>724</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -6531,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>877</v>
+        <v>567</v>
       </c>
       <c r="AE9" t="n">
-        <v>996</v>
+        <v>643</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,0;31,13727;41,9525;22,0;32,987;42,1121</t>
+          <t>21,0;31,13727;41,9525;22,0;32,637;42,724</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,1841;41,1221;22,0;32,877;42,996</t>
+          <t>21,0;31,1841;41,1221;22,0;32,567;42,643</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -6620,10 +6620,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1050</v>
+        <v>678</v>
       </c>
       <c r="M10" t="n">
-        <v>1192</v>
+        <v>770</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -6674,10 +6674,10 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>987</v>
+        <v>637</v>
       </c>
       <c r="AE10" t="n">
-        <v>1121</v>
+        <v>724</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,0;31,15581;41,10491;22,0;32,1050;42,1192</t>
+          <t>21,0;31,15581;41,10491;22,0;32,678;42,770</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -6719,7 +6719,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,1994;41,1338;22,0;32,987;42,1121</t>
+          <t>21,0;31,1994;41,1338;22,0;32,637;42,724</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -6763,10 +6763,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1097</v>
+        <v>708</v>
       </c>
       <c r="M11" t="n">
-        <v>1246</v>
+        <v>804</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -6817,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1097</v>
+        <v>708</v>
       </c>
       <c r="AE11" t="n">
-        <v>1246</v>
+        <v>804</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,0;31,17404;41,11578;22,0;32,1097;42,1246</t>
+          <t>21,0;31,17404;41,11578;22,0;32,708;42,804</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,2150;41,1460;22,0;32,1097;42,1246</t>
+          <t>21,0;31,2150;41,1460;22,0;32,708;42,804</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">

--- a/opm_hero_property/heroes/102.xlsx
+++ b/opm_hero_property/heroes/102.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -996,27 +997,27 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,47603;31,9015;41,2995</t>
+          <t>21,47603;31,7376;41,2777</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>21,0;31,16580;41,6254</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,5751;31,1082;41,388</t>
+          <t>21,5751;31,886;41,360</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,1991;41,812</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1028,19 +1029,19 @@
         <v>47603.5175</v>
       </c>
       <c r="O2" t="n">
-        <v>9015.968499999999</v>
+        <v>7376.7015</v>
       </c>
       <c r="P2" t="n">
-        <v>2995.1845</v>
+        <v>2777.3529</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>16580.0148</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6254.8788</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1055,19 +1056,19 @@
         <v>5751.977</v>
       </c>
       <c r="X2" t="n">
-        <v>1082.9665</v>
+        <v>886.0635</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.8885</v>
+        <v>360.6057</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1991.5332</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>812.1204</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1103,27 +1104,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,47608;31,9017;41,2995</t>
+          <t>21,47608;31,7377;41,2777</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>21,0;31,16582;41,6255</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,5756;31,1084;41,389</t>
+          <t>21,5756;31,887;41,360</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,1994;41,812</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1135,19 +1136,19 @@
         <v>47608.176</v>
       </c>
       <c r="O3" t="n">
-        <v>9017.316000000001</v>
+        <v>7377.804</v>
       </c>
       <c r="P3" t="n">
-        <v>2995.4925</v>
+        <v>2777.6385</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>16582.4928</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>6255.522</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1162,19 +1163,19 @@
         <v>5756.6355</v>
       </c>
       <c r="X3" t="n">
-        <v>1084.314</v>
+        <v>887.1660000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>389.1965</v>
+        <v>360.8913</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1994.0112</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>812.7636</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1210,27 +1211,27 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,50778;31,9963;41,3272</t>
+          <t>21,50778;31,8151;41,3034</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>21,0;31,18322;41,6834</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,6098;31,1186;41,419</t>
+          <t>21,6098;31,970;41,389</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,2181;41,876</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1242,19 +1243,19 @@
         <v>50778.9161572</v>
       </c>
       <c r="O4" t="n">
-        <v>9963.2646652</v>
+        <v>8151.761998800001</v>
       </c>
       <c r="P4" t="n">
-        <v>3272.6984367</v>
+        <v>3034.68400494</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>18322.05554016</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6834.414397680001</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1269,19 +1270,19 @@
         <v>6098.211519400001</v>
       </c>
       <c r="X4" t="n">
-        <v>1186.1912524</v>
+        <v>970.5201156000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>419.8468351</v>
+        <v>389.31251982</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2181.35949792</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>876.77105304</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1317,27 +1318,27 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,54366;31,11035;41,3587</t>
+          <t>21,54366;31,9028;41,3326</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>21,0;31,20293;41,7491</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,6484;31,1301;41,454</t>
+          <t>21,6484;31,1064;41,421</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,2393;41,949</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1349,19 +1350,19 @@
         <v>54366.5360777</v>
       </c>
       <c r="O5" t="n">
-        <v>11035.2785235</v>
+        <v>9028.864246499999</v>
       </c>
       <c r="P5" t="n">
-        <v>3587.11627505</v>
+        <v>3326.23509141</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20293.4472588</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>7491.01684452</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1376,19 +1377,19 @@
         <v>6484.18859165</v>
       </c>
       <c r="X5" t="n">
-        <v>1301.4850695</v>
+        <v>1064.8514205</v>
       </c>
       <c r="Y5" t="n">
-        <v>454.60911265</v>
+        <v>421.54663173</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2393.3803356</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>949.3655235599999</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -1424,27 +1425,27 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,58591;31,12295;41,3956</t>
+          <t>21,58591;31,10060;41,3669</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>21,0;31,22611;41,8263</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6938;31,1436;41,495</t>
+          <t>21,6938;31,1175;41,459</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,2642;41,1034</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1456,19 +1457,19 @@
         <v>58591.6274174</v>
       </c>
       <c r="O6" t="n">
-        <v>12295.6178884</v>
+        <v>10060.0509996</v>
       </c>
       <c r="P6" t="n">
-        <v>3956.85515995</v>
+        <v>3669.08387559</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>22611.16224672</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>8263.14687948</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1483,19 +1484,19 @@
         <v>6938.4561323</v>
       </c>
       <c r="X6" t="n">
-        <v>1436.9247508</v>
+        <v>1175.6657052</v>
       </c>
       <c r="Y6" t="n">
-        <v>495.43344235</v>
+        <v>459.40191927</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>2642.44863264</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1034.61944844</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1531,27 +1532,27 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,65437;31,13747;41,4729</t>
+          <t>21,65437;31,11247;41,4385</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>21,0;31,25280;41,9876</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7681;31,1594;41,581</t>
+          <t>21,7681;31,1304;41,539</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,2932;41,1213</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1563,19 +1564,19 @@
         <v>65437.00086</v>
       </c>
       <c r="O7" t="n">
-        <v>13747.28804295</v>
+        <v>11247.78112605</v>
       </c>
       <c r="P7" t="n">
-        <v>4729.22336425</v>
+        <v>4385.27984685</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>25280.72710236</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>9876.0924282</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1590,19 +1591,19 @@
         <v>7681.87497</v>
       </c>
       <c r="X7" t="n">
-        <v>1594.72227915</v>
+        <v>1304.77277385</v>
       </c>
       <c r="Y7" t="n">
-        <v>581.3032802499999</v>
+        <v>539.0266780500001</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2932.63213932</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1213.9424346</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1638,27 +1639,27 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,74287;31,15387;41,5797</t>
+          <t>21,74287;31,12589;41,5375</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>21,0;31,28296;41,12106</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8639;31,1771;41,699</t>
+          <t>21,8639;31,1449;41,648</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3258;41,1461</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1670,19 +1671,19 @@
         <v>74287.5367542</v>
       </c>
       <c r="O8" t="n">
-        <v>15387.40148715</v>
+        <v>12589.69212585</v>
       </c>
       <c r="P8" t="n">
-        <v>5797.492058049999</v>
+        <v>5375.85627201</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>28296.83182572</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>12106.97042772</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1697,19 +1698,19 @@
         <v>8639.2103259</v>
       </c>
       <c r="X8" t="n">
-        <v>1771.99015455</v>
+        <v>1449.81012645</v>
       </c>
       <c r="Y8" t="n">
-        <v>699.83771165</v>
+        <v>648.94042353</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>3258.62085564</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1461.47927316</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -1745,27 +1746,27 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,85671;31,17279;41,7235</t>
+          <t>21,85671;31,14137;41,6709</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>21,0;31,31775;41,15109</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9865;31,1975;41,858</t>
+          <t>21,9865;31,1616;41,796</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3632;41,1793</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1777,19 +1778,19 @@
         <v>85671.59749609999</v>
       </c>
       <c r="O9" t="n">
-        <v>17279.06781755</v>
+        <v>14137.41912345</v>
       </c>
       <c r="P9" t="n">
-        <v>7235.230136749999</v>
+        <v>6709.03158135</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31775.53250604</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>15109.4156622</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1804,19 +1805,19 @@
         <v>9865.90218845</v>
       </c>
       <c r="X9" t="n">
-        <v>1975.51365935</v>
+        <v>1616.32935765</v>
       </c>
       <c r="Y9" t="n">
-        <v>858.92697275</v>
+        <v>796.45955655</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>3632.89265148</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1793.7072366</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1852,27 +1853,27 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,94199;31,18287;41,8432</t>
+          <t>21,94199;31,14962;41,7819</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>21,0;31,33630;41,17609</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10784;31,2083;41,991</t>
+          <t>21,10784;31,1705;41,919</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,3832;41,2070</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1884,19 +1885,19 @@
         <v>94199.14343069999</v>
       </c>
       <c r="O10" t="n">
-        <v>18287.9335793</v>
+        <v>14962.8547467</v>
       </c>
       <c r="P10" t="n">
-        <v>8432.3502725</v>
+        <v>7819.0884345</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>33630.79733544</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>17609.375634</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1911,19 +1912,19 @@
         <v>10784.83806015</v>
       </c>
       <c r="X10" t="n">
-        <v>2083.9836941</v>
+        <v>1705.0775679</v>
       </c>
       <c r="Y10" t="n">
-        <v>991.3751925</v>
+        <v>919.2751785000002</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>3832.36481928</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>2070.300402</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -1959,27 +1960,27 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,104601;31,19485;41,9902</t>
+          <t>21,104601;31,15942;41,9182</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>21,0;31,35832;41,20679</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11904;31,2212;41,1153</t>
+          <t>21,11904;31,1810;41,1069</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4068;41,2409</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1991,19 +1992,19 @@
         <v>104601.1727453</v>
       </c>
       <c r="O11" t="n">
-        <v>19485.00934765</v>
+        <v>15942.28037535</v>
       </c>
       <c r="P11" t="n">
-        <v>9902.42448965</v>
+        <v>9182.248163130002</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>35832.17303412</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>20679.34880436</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -2018,19 +2019,19 @@
         <v>11904.19569185</v>
       </c>
       <c r="X11" t="n">
-        <v>2212.48409305</v>
+        <v>1810.21425795</v>
       </c>
       <c r="Y11" t="n">
-        <v>1153.87070645</v>
+        <v>1069.95283689</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>4068.67204644</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>2409.64168308</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -2066,27 +2067,27 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,123765;31,22006;41,12518</t>
+          <t>21,123765;31,18005;41,11607</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>21,0;31,40468;41,26141</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13963;31,2482;41,1442</t>
+          <t>21,13963;31,2031;41,1337</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4566;41,3012</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2098,19 +2099,19 @@
         <v>123765.3385892</v>
       </c>
       <c r="O12" t="n">
-        <v>22006.1138605</v>
+        <v>18005.0022495</v>
       </c>
       <c r="P12" t="n">
-        <v>12518.14935525</v>
+        <v>11607.73849305</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>40468.3860084</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>26141.7976146</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -2125,19 +2126,19 @@
         <v>13963.6369334</v>
       </c>
       <c r="X12" t="n">
-        <v>2482.9959385</v>
+        <v>2031.5421315</v>
       </c>
       <c r="Y12" t="n">
-        <v>1442.69450325</v>
+        <v>1337.77126665</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>4566.1327908</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>3012.7957938</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2173,27 +2174,27 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,126735;31,22512;41,12889</t>
+          <t>21,126735;31,18419;41,11951</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>21,0;31,41400;41,26916</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,14292;31,2539;41,1484</t>
+          <t>21,14292;31,2077;41,1376</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4669;41,3100</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2205,19 +2206,19 @@
         <v>126735.5188099</v>
       </c>
       <c r="O13" t="n">
-        <v>22512.8001329</v>
+        <v>18419.5637451</v>
       </c>
       <c r="P13" t="n">
-        <v>12889.00474015</v>
+        <v>11951.62257723</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>41400.16232232</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>26916.25924956</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2232,19 +2233,19 @@
         <v>14292.98494855</v>
       </c>
       <c r="X13" t="n">
-        <v>2539.0876973</v>
+        <v>2077.4353887</v>
       </c>
       <c r="Y13" t="n">
-        <v>1484.63533295</v>
+        <v>1376.66185419</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>4669.28334984</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>3100.38131868</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2280,27 +2281,27 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,129701;31,23018;41,13259</t>
+          <t>21,129701;31,18833;41,12295</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>21,0;31,42330;41,27690</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,14621;31,2595;41,1526</t>
+          <t>21,14621;31,2123;41,1415</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4772;41,3187</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2312,19 +2313,19 @@
         <v>129701.0539209</v>
       </c>
       <c r="O14" t="n">
-        <v>23018.63712225</v>
+        <v>18833.43037275</v>
       </c>
       <c r="P14" t="n">
-        <v>13259.82162505</v>
+        <v>12295.47096141</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>42330.3768378</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27690.64048452</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2339,19 +2340,19 @@
         <v>14621.87300805</v>
       </c>
       <c r="X14" t="n">
-        <v>2595.12347325</v>
+        <v>2123.28284175</v>
       </c>
       <c r="Y14" t="n">
-        <v>1526.53766265</v>
+        <v>1415.51674173</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>4772.3309586</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>3187.88644356</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2387,27 +2388,27 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,132671;31,23525;41,13630</t>
+          <t>21,132671;31,19248;41,12639</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>21,0;31,43262;41,28465</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14951;31,2651;41,1568</t>
+          <t>21,14951;31,2169;41,1454</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4875;41,3275</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2419,19 +2420,19 @@
         <v>132671.2341416</v>
       </c>
       <c r="O15" t="n">
-        <v>23525.36189465</v>
+        <v>19248.02336835</v>
       </c>
       <c r="P15" t="n">
-        <v>13630.67700995</v>
+        <v>12639.35504559</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>43262.22395172</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>28465.10211948</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2446,19 +2447,19 @@
         <v>14951.2210232</v>
       </c>
       <c r="X15" t="n">
-        <v>2651.25373205</v>
+        <v>2169.20759895</v>
       </c>
       <c r="Y15" t="n">
-        <v>1568.47849235</v>
+        <v>1454.40732927</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>4875.552317639999</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>3275.47196844</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2494,27 +2495,27 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,135641;31,24031;41,14001</t>
+          <t>21,135641;31,19661;41,12983</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>21,0;31,44192;41,29239</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,15280;31,2707;41,1610</t>
+          <t>21,15280;31,2215;41,1493</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,4978;41,3362</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2526,19 +2527,19 @@
         <v>135641.4528623</v>
       </c>
       <c r="O16" t="n">
-        <v>24031.160384</v>
+        <v>19661.858496</v>
       </c>
       <c r="P16" t="n">
-        <v>14001.49389485</v>
+        <v>12983.20342977</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44192.36766720001</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>29239.48335444</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2553,19 +2554,19 @@
         <v>15280.60753835</v>
       </c>
       <c r="X16" t="n">
-        <v>2707.251008</v>
+        <v>2215.023552</v>
       </c>
       <c r="Y16" t="n">
-        <v>1610.38082205</v>
+        <v>1493.26221681</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>4978.5291264</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>3362.97709332</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -2601,27 +2602,27 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,138606;31,24536;41,14372</t>
+          <t>21,138606;31,20075;41,13327</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>21,0;31,45122;41,30013</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,15609;31,2763;41,1652</t>
+          <t>21,15609;31,2260;41,1532</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0</t>
+          <t>21,0;31,5081;41,3450</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2633,19 +2634,19 @@
         <v>138606.9494733</v>
       </c>
       <c r="O17" t="n">
-        <v>24536.99737335</v>
+        <v>20075.72512365</v>
       </c>
       <c r="P17" t="n">
-        <v>14372.34927975</v>
+        <v>13327.08751395</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>45122.58218268</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>30013.9449894</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2660,19 +2661,19 @@
         <v>15609.45709785</v>
       </c>
       <c r="X17" t="n">
-        <v>2763.28678395</v>
+        <v>2260.87100505</v>
       </c>
       <c r="Y17" t="n">
-        <v>1652.32165175</v>
+        <v>1532.15280435</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>5081.576735160001</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>3450.5626182</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6874,4 +6875,2796 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>102</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35433.0588528</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4304.155876</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2477.2506167</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>102</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>47575.8414572</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6658.292799</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3407.570021</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>102</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>82119.9109208</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12533.95075</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6359.9833</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>102</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>90440.98925791999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13857.56969</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6957.8869</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2200</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2067.892615;41,934.08069</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>102</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>89629.61284304</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13600.35863</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6787.83609</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3977.78523;41,1969.45897</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>102</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>289947.6238032</v>
+      </c>
+      <c r="U7" t="n">
+        <v>45358.0248</v>
+      </c>
+      <c r="V7" t="n">
+        <v>24994.6038955</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>256935.87471168</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40552.766816</v>
+      </c>
+      <c r="V8" t="n">
+        <v>21365.2016615</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0.0;31,2259.671536;41,1045.98608815</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>302915.0535296</v>
+      </c>
+      <c r="U9" t="n">
+        <v>47148.71088</v>
+      </c>
+      <c r="V9" t="n">
+        <v>25425.8058391</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2100</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>21,0.0;31,10379.357680000001;41,5852.03971935</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>313398.1814816</v>
+      </c>
+      <c r="U10" t="n">
+        <v>48702.23888</v>
+      </c>
+      <c r="V10" t="n">
+        <v>26494.9295941</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0.0;31,10379.357680000001;41,5852.03971935</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>102</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>363810.1696204</v>
+      </c>
+      <c r="U11" t="n">
+        <v>56025.21944</v>
+      </c>
+      <c r="V11" t="n">
+        <v>31949.73325555</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0.0;31,19603.795648;41,12805.9649986</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>102</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>323881.3094336</v>
+      </c>
+      <c r="U12" t="n">
+        <v>50255.76688</v>
+      </c>
+      <c r="V12" t="n">
+        <v>27564.0533491</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0.0;31,10379.357680000001;41,5852.03971935</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>102</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>467547.13063032</v>
+      </c>
+      <c r="U13" t="n">
+        <v>74153.7130738</v>
+      </c>
+      <c r="V13" t="n">
+        <v>44168.2053023</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3160</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0.0;31,12883.0661698;41,8075.57777862</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>102</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>475406.47092624</v>
+      </c>
+      <c r="U14" t="n">
+        <v>75287.0513086</v>
+      </c>
+      <c r="V14" t="n">
+        <v>45253.94339472</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3230</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0.0;31,14754.5771981;41,9829.59983966</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>102</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1095741.38541794</v>
+      </c>
+      <c r="U15" t="n">
+        <v>177764.1191808</v>
+      </c>
+      <c r="V15" t="n">
+        <v>115313.75169</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3510</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0.0;31,20279.9830912;41,14160.47516</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>102</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5332539.0293521</v>
+      </c>
+      <c r="U16" t="n">
+        <v>895267.64632415</v>
+      </c>
+      <c r="V16" t="n">
+        <v>550819.64786345</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4070</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0.0;31,62526.58218268;41,41591.9449894</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>102</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8589578.466768699</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1445688.49146315</v>
+      </c>
+      <c r="V17" t="n">
+        <v>881631.17454795</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4980</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0.0;31,62526.58218268;41,41591.9449894</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>102</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>233655.55674106</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41617.04984358</v>
+      </c>
+      <c r="V18" t="n">
+        <v>19346.10657</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1217.5316426;41,610.25072</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>102</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>318791.24752922</v>
+      </c>
+      <c r="U19" t="n">
+        <v>53234.23819486</v>
+      </c>
+      <c r="V19" t="n">
+        <v>27610.21864706</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2100</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0.0;31,1639.78805102;41,906.2660255999999</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>102</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>410611.81444576</v>
+      </c>
+      <c r="U20" t="n">
+        <v>67279.9662757</v>
+      </c>
+      <c r="V20" t="n">
+        <v>38569.6410304</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3090</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0.0;31,3144.0104454;41,1980.8984971</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>102</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>474726.17904569</v>
+      </c>
+      <c r="U21" t="n">
+        <v>79563.93935300001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>46323.7537578</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3230</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0.0;31,4233.730494400001;41,2723.29334667</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>102</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>548801.334408</v>
+      </c>
+      <c r="U22" t="n">
+        <v>96826.53834239999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>56332.43973271999</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3510</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0.0;31,5147.2287104;41,3384.12714741</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>102</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>701169.8238004501</v>
+      </c>
+      <c r="U23" t="n">
+        <v>132213.47452355</v>
+      </c>
+      <c r="V23" t="n">
+        <v>76924.68397785</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4070</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0.0;31,7231.576735160001;41,4910.5626182</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0.0;31,0.0;41,0.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/102.xlsx
+++ b/opm_hero_property/heroes/102.xlsx
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -528,7 +528,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +542,7 @@
         <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +556,7 @@
         <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -570,7 +570,7 @@
         <v>126</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -584,7 +584,7 @@
         <v>193</v>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -598,7 +598,7 @@
         <v>288</v>
       </c>
       <c r="D7" t="n">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         <v>431</v>
       </c>
       <c r="D8" t="n">
-        <v>152</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -626,7 +626,7 @@
         <v>604</v>
       </c>
       <c r="D9" t="n">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10">
@@ -640,7 +640,7 @@
         <v>862</v>
       </c>
       <c r="D10" t="n">
-        <v>348</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11">
@@ -654,7 +654,7 @@
         <v>1225</v>
       </c>
       <c r="D11" t="n">
-        <v>526</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12">
@@ -668,7 +668,7 @@
         <v>1725</v>
       </c>
       <c r="D12" t="n">
-        <v>784</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13">
@@ -682,7 +682,7 @@
         <v>2484</v>
       </c>
       <c r="D13" t="n">
-        <v>1192</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="14">
@@ -696,7 +696,7 @@
         <v>3450</v>
       </c>
       <c r="D14" t="n">
-        <v>1742</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="15">
@@ -710,7 +710,7 @@
         <v>3450</v>
       </c>
       <c r="D15" t="n">
-        <v>1742</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="16">
@@ -724,7 +724,7 @@
         <v>3450</v>
       </c>
       <c r="D16" t="n">
-        <v>1742</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="17">
@@ -738,7 +738,7 @@
         <v>3450</v>
       </c>
       <c r="D17" t="n">
-        <v>1742</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="18">
@@ -752,7 +752,7 @@
         <v>3450</v>
       </c>
       <c r="D18" t="n">
-        <v>1742</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="19">
@@ -766,7 +766,7 @@
         <v>3450</v>
       </c>
       <c r="D19" t="n">
-        <v>1742</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>3450</v>
       </c>
       <c r="D20" t="n">
-        <v>1742</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="21">
@@ -794,7 +794,7 @@
         <v>3450</v>
       </c>
       <c r="D21" t="n">
-        <v>1742</v>
+        <v>2081</v>
       </c>
     </row>
   </sheetData>
@@ -997,12 +997,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,47603;31,7376;41,2777</t>
+          <t>21,47603;31,7376;41,2789</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,0;31,16580;41,6254</t>
+          <t>21,0;31,16580;41,6282</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,5751;31,886;41,360</t>
+          <t>21,5751;31,886;41,372</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,0;31,1991;41,812</t>
+          <t>21,0;31,1991;41,839</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1032,7 +1032,7 @@
         <v>7376.7015</v>
       </c>
       <c r="P2" t="n">
-        <v>2777.3529</v>
+        <v>2789.6337</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>16580.0148</v>
       </c>
       <c r="S2" t="n">
-        <v>6254.8788</v>
+        <v>6282.5364</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>886.0635</v>
       </c>
       <c r="Y2" t="n">
-        <v>360.6057</v>
+        <v>372.8865</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>1991.5332</v>
       </c>
       <c r="AB2" t="n">
-        <v>812.1204</v>
+        <v>839.778</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,47608;31,7377;41,2777</t>
+          <t>21,47608;31,7377;41,2789</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,0;31,16582;41,6255</t>
+          <t>21,0;31,16582;41,6283</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,5756;31,887;41,360</t>
+          <t>21,5756;31,887;41,373</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,0;31,1994;41,812</t>
+          <t>21,0;31,1994;41,840</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -1139,7 +1139,7 @@
         <v>7377.804</v>
       </c>
       <c r="P3" t="n">
-        <v>2777.6385</v>
+        <v>2789.9907</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>16582.4928</v>
       </c>
       <c r="S3" t="n">
-        <v>6255.522</v>
+        <v>6283.3404</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>887.1660000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>360.8913</v>
+        <v>373.2435</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>1994.0112</v>
       </c>
       <c r="AB3" t="n">
-        <v>812.7636</v>
+        <v>840.582</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>11064</v>
       </c>
       <c r="D4" t="n">
-        <v>10946</v>
+        <v>11178</v>
       </c>
       <c r="E4" t="n">
         <v>241</v>
@@ -1207,16 +1207,16 @@
         <v>70</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,50778;31,8151;41,3034</t>
+          <t>21,50778;31,8151;41,3110</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,0;31,18322;41,6834</t>
+          <t>21,0;31,18322;41,7004</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,6098;31,970;41,389</t>
+          <t>21,6098;31,970;41,408</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,0;31,2181;41,876</t>
+          <t>21,0;31,2181;41,920</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1246,7 +1246,7 @@
         <v>8151.761998800001</v>
       </c>
       <c r="P4" t="n">
-        <v>3034.68400494</v>
+        <v>3110.07620742</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>18322.05554016</v>
       </c>
       <c r="S4" t="n">
-        <v>6834.414397680001</v>
+        <v>7004.20524024</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>970.5201156000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>389.31251982</v>
+        <v>408.63618726</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>2181.35949792</v>
       </c>
       <c r="AB4" t="n">
-        <v>876.77105304</v>
+        <v>920.28990072</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>12270</v>
       </c>
       <c r="D5" t="n">
-        <v>12019</v>
+        <v>12513</v>
       </c>
       <c r="E5" t="n">
         <v>362</v>
@@ -1314,16 +1314,16 @@
         <v>105</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,54366;31,9028;41,3326</t>
+          <t>21,54366;31,9028;41,3472</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,0;31,20293;41,7491</t>
+          <t>21,0;31,20293;41,7820</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,6484;31,1064;41,421</t>
+          <t>21,6484;31,1064;41,448</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,0;31,2393;41,949</t>
+          <t>21,0;31,2393;41,1010</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1353,7 +1353,7 @@
         <v>9028.864246499999</v>
       </c>
       <c r="P5" t="n">
-        <v>3326.23509141</v>
+        <v>3472.73838807</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>20293.4472588</v>
       </c>
       <c r="S5" t="n">
-        <v>7491.01684452</v>
+        <v>7820.95704204</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>1064.8514205</v>
       </c>
       <c r="Y5" t="n">
-        <v>421.54663173</v>
+        <v>448.66261671</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>2393.3803356</v>
       </c>
       <c r="AB5" t="n">
-        <v>949.3655235599999</v>
+        <v>1010.43345612</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>13688</v>
       </c>
       <c r="D6" t="n">
-        <v>13281</v>
+        <v>14083</v>
       </c>
       <c r="E6" t="n">
         <v>496</v>
@@ -1421,16 +1421,16 @@
         <v>143</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,58591;31,10060;41,3669</t>
+          <t>21,58591;31,10060;41,3899</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,0;31,22611;41,8263</t>
+          <t>21,0;31,22611;41,8781</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6938;31,1175;41,459</t>
+          <t>21,6938;31,1175;41,495</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,0;31,2642;41,1034</t>
+          <t>21,0;31,2642;41,1116</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1460,7 +1460,7 @@
         <v>10060.0509996</v>
       </c>
       <c r="P6" t="n">
-        <v>3669.08387559</v>
+        <v>3899.25482037</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>22611.16224672</v>
       </c>
       <c r="S6" t="n">
-        <v>8263.14687948</v>
+        <v>8781.515057639999</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>1175.6657052</v>
       </c>
       <c r="Y6" t="n">
-        <v>459.40191927</v>
+        <v>495.7497386100001</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>2642.44863264</v>
       </c>
       <c r="AB6" t="n">
-        <v>1034.61944844</v>
+        <v>1116.47840292</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>15319</v>
       </c>
       <c r="D7" t="n">
-        <v>15915</v>
+        <v>17362</v>
       </c>
       <c r="E7" t="n">
         <v>929</v>
@@ -1528,16 +1528,16 @@
         <v>239</v>
       </c>
       <c r="G7" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,65437;31,11247;41,4385</t>
+          <t>21,65437;31,11247;41,4790</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,0;31,25280;41,9876</t>
+          <t>21,0;31,25280;41,10789</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1547,12 +1547,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7681;31,1304;41,539</t>
+          <t>21,7681;31,1304;41,594</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,0;31,2932;41,1213</t>
+          <t>21,0;31,2932;41,1339</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1567,7 +1567,7 @@
         <v>11247.78112605</v>
       </c>
       <c r="P7" t="n">
-        <v>4385.27984685</v>
+        <v>4790.79996318</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>25280.72710236</v>
       </c>
       <c r="S7" t="n">
-        <v>9876.0924282</v>
+        <v>10789.36462296</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>1304.77277385</v>
       </c>
       <c r="Y7" t="n">
-        <v>539.0266780500001</v>
+        <v>594.8434745400001</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>2932.63213932</v>
       </c>
       <c r="AB7" t="n">
-        <v>1213.9424346</v>
+        <v>1339.64748888</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>17163</v>
       </c>
       <c r="D8" t="n">
-        <v>19559</v>
+        <v>21896</v>
       </c>
       <c r="E8" t="n">
         <v>1377</v>
@@ -1635,16 +1635,16 @@
         <v>318</v>
       </c>
       <c r="G8" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,74287;31,12589;41,5375</t>
+          <t>21,74287;31,12589;41,6023</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,0;31,28296;41,12106</t>
+          <t>21,0;31,28296;41,13564</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8639;31,1449;41,648</t>
+          <t>21,8639;31,1449;41,731</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,0;31,3258;41,1461</t>
+          <t>21,0;31,3258;41,1647</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1674,7 +1674,7 @@
         <v>12589.69212585</v>
       </c>
       <c r="P8" t="n">
-        <v>5375.85627201</v>
+        <v>6023.18687544</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>28296.83182572</v>
       </c>
       <c r="S8" t="n">
-        <v>12106.97042772</v>
+        <v>13564.82422368</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>1449.81012645</v>
       </c>
       <c r="Y8" t="n">
-        <v>648.94042353</v>
+        <v>731.4772063200001</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>3258.62085564</v>
       </c>
       <c r="AB8" t="n">
-        <v>1461.47927316</v>
+        <v>1647.36043104</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>19291</v>
       </c>
       <c r="D9" t="n">
-        <v>24465</v>
+        <v>28002</v>
       </c>
       <c r="E9" t="n">
         <v>1817</v>
@@ -1742,16 +1742,16 @@
         <v>382</v>
       </c>
       <c r="G9" t="n">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,85671;31,14137;41,6709</t>
+          <t>21,85671;31,14137;41,7682</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,0;31,31775;41,15109</t>
+          <t>21,0;31,31775;41,17301</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9865;31,1616;41,796</t>
+          <t>21,9865;31,1616;41,915</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,0;31,3632;41,1793</t>
+          <t>21,0;31,3632;41,2060</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1781,7 +1781,7 @@
         <v>14137.41912345</v>
       </c>
       <c r="P9" t="n">
-        <v>6709.03158135</v>
+        <v>7682.383152780001</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>31775.53250604</v>
       </c>
       <c r="S9" t="n">
-        <v>15109.4156622</v>
+        <v>17301.50155416</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>1616.32935765</v>
       </c>
       <c r="Y9" t="n">
-        <v>796.45955655</v>
+        <v>915.0076433400001</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>3632.89265148</v>
       </c>
       <c r="AB9" t="n">
-        <v>1793.7072366</v>
+        <v>2060.68948248</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>20426</v>
       </c>
       <c r="D10" t="n">
-        <v>28550</v>
+        <v>33086</v>
       </c>
       <c r="E10" t="n">
         <v>2148</v>
@@ -1849,16 +1849,16 @@
         <v>414</v>
       </c>
       <c r="G10" t="n">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,94199;31,14962;41,7819</t>
+          <t>21,94199;31,14962;41,9063</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,0;31,33630;41,17609</t>
+          <t>21,0;31,33630;41,20412</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10784;31,1705;41,919</t>
+          <t>21,10784;31,1705;41,1067</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,0;31,3832;41,2070</t>
+          <t>21,0;31,3832;41,2404</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1888,7 +1888,7 @@
         <v>14962.8547467</v>
       </c>
       <c r="P10" t="n">
-        <v>7819.0884345</v>
+        <v>9063.87057954</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>33630.79733544</v>
       </c>
       <c r="S10" t="n">
-        <v>17609.375634</v>
+        <v>20412.75054888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1705.0775679</v>
       </c>
       <c r="Y10" t="n">
-        <v>919.2751785000002</v>
+        <v>1067.82079362</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>3832.36481928</v>
       </c>
       <c r="AB10" t="n">
-        <v>2070.300402</v>
+        <v>2404.84010664</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>21773</v>
       </c>
       <c r="D11" t="n">
-        <v>33567</v>
+        <v>39329</v>
       </c>
       <c r="E11" t="n">
         <v>2506</v>
@@ -1956,16 +1956,16 @@
         <v>446</v>
       </c>
       <c r="G11" t="n">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,104601;31,15942;41,9182</t>
+          <t>21,104601;31,15942;41,10760</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,0;31,35832;41,20679</t>
+          <t>21,0;31,35832;41,24232</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1975,12 +1975,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11904;31,1810;41,1069</t>
+          <t>21,11904;31,1810;41,1255</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,0;31,4068;41,2409</t>
+          <t>21,0;31,4068;41,2826</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1995,7 +1995,7 @@
         <v>15942.28037535</v>
       </c>
       <c r="P11" t="n">
-        <v>9182.248163130002</v>
+        <v>10760.07240231</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>35832.17303412</v>
       </c>
       <c r="S11" t="n">
-        <v>20679.34880436</v>
+        <v>24232.76809932</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>1810.21425795</v>
       </c>
       <c r="Y11" t="n">
-        <v>1069.95283689</v>
+        <v>1255.24733943</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>4068.67204644</v>
       </c>
       <c r="AB11" t="n">
-        <v>2409.64168308</v>
+        <v>2826.94358796</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>24610</v>
       </c>
       <c r="D12" t="n">
-        <v>42495</v>
+        <v>50440</v>
       </c>
       <c r="E12" t="n">
         <v>3084</v>
@@ -2063,16 +2063,16 @@
         <v>510</v>
       </c>
       <c r="G12" t="n">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,123765;31,18005;41,11607</t>
+          <t>21,123765;31,18005;41,13778</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,0;31,40468;41,26141</t>
+          <t>21,0;31,40468;41,31030</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13963;31,2031;41,1337</t>
+          <t>21,13963;31,2031;41,1588</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,0;31,4566;41,3012</t>
+          <t>21,0;31,4566;41,3577</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2102,7 +2102,7 @@
         <v>18005.0022495</v>
       </c>
       <c r="P12" t="n">
-        <v>11607.73849305</v>
+        <v>13778.5288116</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>40468.3860084</v>
       </c>
       <c r="S12" t="n">
-        <v>26141.7976146</v>
+        <v>31030.6363152</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>2031.5421315</v>
       </c>
       <c r="Y12" t="n">
-        <v>1337.77126665</v>
+        <v>1588.4559348</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>4566.1327908</v>
       </c>
       <c r="AB12" t="n">
-        <v>3012.7957938</v>
+        <v>3577.3629456</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>25178</v>
       </c>
       <c r="D13" t="n">
-        <v>43757</v>
+        <v>52010</v>
       </c>
       <c r="E13" t="n">
         <v>3469</v>
@@ -2170,16 +2170,16 @@
         <v>573</v>
       </c>
       <c r="G13" t="n">
-        <v>338</v>
+        <v>403</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,126735;31,18419;41,11951</t>
+          <t>21,126735;31,18419;41,14206</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,0;31,41400;41,26916</t>
+          <t>21,0;31,41400;41,31993</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,14292;31,2077;41,1376</t>
+          <t>21,14292;31,2077;41,1636</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,0;31,4669;41,3100</t>
+          <t>21,0;31,4669;41,3686</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2209,7 +2209,7 @@
         <v>18419.5637451</v>
       </c>
       <c r="P13" t="n">
-        <v>11951.62257723</v>
+        <v>14206.2233439</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>41400.16232232</v>
       </c>
       <c r="S13" t="n">
-        <v>26916.25924956</v>
+        <v>31993.8475308</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>2077.4353887</v>
       </c>
       <c r="Y13" t="n">
-        <v>1376.66185419</v>
+        <v>1636.7211567</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>4669.28334984</v>
       </c>
       <c r="AB13" t="n">
-        <v>3100.38131868</v>
+        <v>3686.0610924</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>25745</v>
       </c>
       <c r="D14" t="n">
-        <v>45019</v>
+        <v>53581</v>
       </c>
       <c r="E14" t="n">
         <v>3855</v>
@@ -2277,16 +2277,16 @@
         <v>637</v>
       </c>
       <c r="G14" t="n">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,129701;31,18833;41,12295</t>
+          <t>21,129701;31,18833;41,14634</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,0;31,42330;41,27690</t>
+          <t>21,0;31,42330;41,32957</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,14621;31,2123;41,1415</t>
+          <t>21,14621;31,2123;41,1685</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,0;31,4772;41,3187</t>
+          <t>21,0;31,4772;41,3794</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2316,7 +2316,7 @@
         <v>18833.43037275</v>
       </c>
       <c r="P14" t="n">
-        <v>12295.47096141</v>
+        <v>14634.22499259</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>42330.3768378</v>
       </c>
       <c r="S14" t="n">
-        <v>27690.64048452</v>
+        <v>32957.75040348</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>2123.28284175</v>
       </c>
       <c r="Y14" t="n">
-        <v>1415.51674173</v>
+        <v>1685.05182027</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>4772.3309586</v>
       </c>
       <c r="AB14" t="n">
-        <v>3187.88644356</v>
+        <v>3794.90662044</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>26313</v>
       </c>
       <c r="D15" t="n">
-        <v>46281</v>
+        <v>55151</v>
       </c>
       <c r="E15" t="n">
         <v>4240</v>
@@ -2384,16 +2384,16 @@
         <v>701</v>
       </c>
       <c r="G15" t="n">
-        <v>413</v>
+        <v>493</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,132671;31,19248;41,12639</t>
+          <t>21,132671;31,19248;41,15061</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,0;31,43262;41,28465</t>
+          <t>21,0;31,43262;41,33921</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14951;31,2169;41,1454</t>
+          <t>21,14951;31,2169;41,1733</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,0;31,4875;41,3275</t>
+          <t>21,0;31,4875;41,3903</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2423,7 +2423,7 @@
         <v>19248.02336835</v>
       </c>
       <c r="P15" t="n">
-        <v>12639.35504559</v>
+        <v>15061.95522489</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -2432,7 +2432,7 @@
         <v>43262.22395172</v>
       </c>
       <c r="S15" t="n">
-        <v>28465.10211948</v>
+        <v>33921.04201908</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>2169.20759895</v>
       </c>
       <c r="Y15" t="n">
-        <v>1454.40732927</v>
+        <v>1733.35274217</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>4875.552317639999</v>
       </c>
       <c r="AB15" t="n">
-        <v>3275.47196844</v>
+        <v>3903.68516724</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>26880</v>
       </c>
       <c r="D16" t="n">
-        <v>47543</v>
+        <v>56722</v>
       </c>
       <c r="E16" t="n">
         <v>4626</v>
@@ -2491,16 +2491,16 @@
         <v>764</v>
       </c>
       <c r="G16" t="n">
-        <v>450</v>
+        <v>538</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,135641;31,19661;41,12983</t>
+          <t>21,135641;31,19661;41,15489</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,0;31,44192;41,29239</t>
+          <t>21,0;31,44192;41,34884</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2510,12 +2510,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,15280;31,2215;41,1493</t>
+          <t>21,15280;31,2215;41,1781</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,0;31,4978;41,3362</t>
+          <t>21,0;31,4978;41,4012</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2530,7 +2530,7 @@
         <v>19661.858496</v>
       </c>
       <c r="P16" t="n">
-        <v>12983.20342977</v>
+        <v>15489.95687358</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>44192.36766720001</v>
       </c>
       <c r="S16" t="n">
-        <v>29239.48335444</v>
+        <v>34884.94489176</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>2215.023552</v>
       </c>
       <c r="Y16" t="n">
-        <v>1493.26221681</v>
+        <v>1781.68340574</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>4978.5291264</v>
       </c>
       <c r="AB16" t="n">
-        <v>3362.97709332</v>
+        <v>4012.53069528</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>27447</v>
       </c>
       <c r="D17" t="n">
-        <v>48805</v>
+        <v>58292</v>
       </c>
       <c r="E17" t="n">
         <v>5011</v>
@@ -2598,16 +2598,16 @@
         <v>828</v>
       </c>
       <c r="G17" t="n">
-        <v>488</v>
+        <v>583</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,138606;31,20075;41,13327</t>
+          <t>21,138606;31,20075;41,15917</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,0;31,45122;41,30013</t>
+          <t>21,0;31,45122;41,35848</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2617,12 +2617,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,15609;31,2260;41,1532</t>
+          <t>21,15609;31,2260;41,1829</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,0;31,5081;41,3450</t>
+          <t>21,0;31,5081;41,4121</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2637,7 +2637,7 @@
         <v>20075.72512365</v>
       </c>
       <c r="P17" t="n">
-        <v>13327.08751395</v>
+        <v>15917.68710588</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>45122.58218268</v>
       </c>
       <c r="S17" t="n">
-        <v>30013.9449894</v>
+        <v>35848.23650736</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>2260.87100505</v>
       </c>
       <c r="Y17" t="n">
-        <v>1532.15280435</v>
+        <v>1829.98432764</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>5081.576735160001</v>
       </c>
       <c r="AB17" t="n">
-        <v>3450.5626182</v>
+        <v>4121.309242079999</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2952,11 +2952,11 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>22,360;32,300;42,420;50,300</t>
+          <t>22,360;32,300;42,420;50,200</t>
         </is>
       </c>
     </row>
@@ -2986,11 +2986,11 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>22,420;32,350;42,490;50,300</t>
+          <t>22,420;32,350;42,490;50,200</t>
         </is>
       </c>
     </row>
@@ -3020,11 +3020,11 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>22,480;32,400;42,560;50,300</t>
+          <t>22,480;32,400;42,560;50,200</t>
         </is>
       </c>
     </row>
@@ -3054,11 +3054,11 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>22,540;32,450;42,630;50,300</t>
+          <t>22,540;32,450;42,630;50,200</t>
         </is>
       </c>
     </row>
@@ -3088,11 +3088,11 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>22,600;32,500;42,700;50,300</t>
+          <t>22,600;32,500;42,700;50,200</t>
         </is>
       </c>
     </row>
@@ -3122,11 +3122,11 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>22,660;32,550;42,770;50,300</t>
+          <t>22,660;32,550;42,770;50,200</t>
         </is>
       </c>
     </row>
@@ -3156,11 +3156,11 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>22,720;32,600;42,840;50,300</t>
+          <t>22,720;32,600;42,840;50,200</t>
         </is>
       </c>
     </row>
@@ -3190,11 +3190,11 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>22,780;32,650;42,910;50,300</t>
+          <t>22,780;32,650;42,910;50,200</t>
         </is>
       </c>
     </row>
@@ -3224,11 +3224,11 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>22,840;32,700;42,980;50,300</t>
+          <t>22,840;32,700;42,980;50,200</t>
         </is>
       </c>
     </row>
@@ -3258,11 +3258,11 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>22,900;32,750;42,1050;50,300</t>
+          <t>22,900;32,750;42,1050;50,200</t>
         </is>
       </c>
     </row>
@@ -3292,11 +3292,11 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>22,960;32,800;42,1120;50,600</t>
+          <t>22,960;32,800;42,1120;50,400</t>
         </is>
       </c>
     </row>
@@ -3326,11 +3326,11 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>22,1020;32,850;42,1190;50,600</t>
+          <t>22,1020;32,850;42,1190;50,400</t>
         </is>
       </c>
     </row>
@@ -3360,11 +3360,11 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>22,1080;32,900;42,1260;50,600</t>
+          <t>22,1080;32,900;42,1260;50,400</t>
         </is>
       </c>
     </row>
@@ -3394,11 +3394,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>22,1140;32,950;42,1330;50,600</t>
+          <t>22,1140;32,950;42,1330;50,400</t>
         </is>
       </c>
     </row>
@@ -3428,11 +3428,11 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>22,1200;32,1000;42,1400;50,600</t>
+          <t>22,1200;32,1000;42,1400;50,400</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>22,1260;32,1050;42,1470;50,600</t>
+          <t>22,1260;32,1050;42,1470;50,400</t>
         </is>
       </c>
     </row>
@@ -3496,11 +3496,11 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22,1320;32,1100;42,1540;50,600</t>
+          <t>22,1320;32,1100;42,1540;50,400</t>
         </is>
       </c>
     </row>
@@ -3530,11 +3530,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>22,1380;32,1150;42,1610;50,600</t>
+          <t>22,1380;32,1150;42,1610;50,400</t>
         </is>
       </c>
     </row>
@@ -3564,11 +3564,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>22,1440;32,1200;42,1680;50,600</t>
+          <t>22,1440;32,1200;42,1680;50,400</t>
         </is>
       </c>
     </row>
@@ -3598,11 +3598,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>22,1500;32,1250;42,1750;50,600</t>
+          <t>22,1500;32,1250;42,1750;50,400</t>
         </is>
       </c>
     </row>
@@ -3632,11 +3632,11 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>900.0000000000001</v>
+        <v>600</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>22,1560;32,1300;42,1820;50,900</t>
+          <t>22,1560;32,1300;42,1820;50,600</t>
         </is>
       </c>
     </row>
@@ -3666,11 +3666,11 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>900.0000000000001</v>
+        <v>600</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>22,1620;32,1350;42,1890;50,900</t>
+          <t>22,1620;32,1350;42,1890;50,600</t>
         </is>
       </c>
     </row>
@@ -3700,11 +3700,11 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>900.0000000000001</v>
+        <v>600</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>22,1680;32,1400;42,1960;50,900</t>
+          <t>22,1680;32,1400;42,1960;50,600</t>
         </is>
       </c>
     </row>
@@ -3734,11 +3734,11 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>900.0000000000001</v>
+        <v>600</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>22,1740;32,1450;42,2030;50,900</t>
+          <t>22,1740;32,1450;42,2030;50,600</t>
         </is>
       </c>
     </row>
@@ -3768,11 +3768,11 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>900.0000000000001</v>
+        <v>600</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>22,1800;32,1500;42,2100;50,900</t>
+          <t>22,1800;32,1500;42,2100;50,600</t>
         </is>
       </c>
     </row>
@@ -3802,11 +3802,11 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>900.0000000000001</v>
+        <v>600</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>22,1860;32,1550;42,2170;50,900</t>
+          <t>22,1860;32,1550;42,2170;50,600</t>
         </is>
       </c>
     </row>
@@ -3836,11 +3836,11 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>900.0000000000001</v>
+        <v>600</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>22,1920;32,1600;42,2240;50,900</t>
+          <t>22,1920;32,1600;42,2240;50,600</t>
         </is>
       </c>
     </row>
@@ -3870,11 +3870,11 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>900.0000000000001</v>
+        <v>600</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>22,1980;32,1650;42,2310;50,900</t>
+          <t>22,1980;32,1650;42,2310;50,600</t>
         </is>
       </c>
     </row>
@@ -3904,11 +3904,11 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>900.0000000000001</v>
+        <v>600</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>22,2040;32,1700;42,2380;50,900</t>
+          <t>22,2040;32,1700;42,2380;50,600</t>
         </is>
       </c>
     </row>
@@ -3938,11 +3938,11 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>900.0000000000001</v>
+        <v>600</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>22,2100;32,1750;42,2450;50,900</t>
+          <t>22,2100;32,1750;42,2450;50,600</t>
         </is>
       </c>
     </row>
@@ -3972,11 +3972,11 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>22,2160;32,1800;42,2520;50,1200</t>
+          <t>22,2160;32,1800;42,2520;50,800</t>
         </is>
       </c>
     </row>
@@ -4006,11 +4006,11 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>22,2220;32,1850;42,2590;50,1200</t>
+          <t>22,2220;32,1850;42,2590;50,800</t>
         </is>
       </c>
     </row>
@@ -4040,11 +4040,11 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>22,2280;32,1900;42,2660;50,1200</t>
+          <t>22,2280;32,1900;42,2660;50,800</t>
         </is>
       </c>
     </row>
@@ -4074,11 +4074,11 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>22,2340;32,1950;42,2730;50,1200</t>
+          <t>22,2340;32,1950;42,2730;50,800</t>
         </is>
       </c>
     </row>
@@ -4108,11 +4108,11 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>22,2400;32,2000;42,2800;50,1200</t>
+          <t>22,2400;32,2000;42,2800;50,800</t>
         </is>
       </c>
     </row>
@@ -4142,11 +4142,11 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>22,2460;32,2050;42,2870;50,1200</t>
+          <t>22,2460;32,2050;42,2870;50,800</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
         <v>80</v>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E2" t="n">
         <v>51</v>
@@ -4236,16 +4236,16 @@
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,455;31,80;41,47</t>
+          <t>21,455;31,80;41,56</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,51;31,9;41,5</t>
+          <t>21,51;31,9;41,6</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>345</v>
       </c>
       <c r="D3" t="n">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="E3" t="n">
         <v>219</v>
@@ -4269,16 +4269,16 @@
         <v>38</v>
       </c>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1952;31,345;41,202</t>
+          <t>21,1952;31,345;41,241</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,219;31,38;41,23</t>
+          <t>21,219;31,38;41,27</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
         <v>809</v>
       </c>
       <c r="D4" t="n">
-        <v>474</v>
+        <v>566</v>
       </c>
       <c r="E4" t="n">
         <v>515</v>
@@ -4302,16 +4302,16 @@
         <v>91</v>
       </c>
       <c r="G4" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,4575;31,809;41,474</t>
+          <t>21,4575;31,809;41,566</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,515;31,91;41,54</t>
+          <t>21,515;31,91;41,65</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
         <v>1482</v>
       </c>
       <c r="D5" t="n">
-        <v>868</v>
+        <v>1036</v>
       </c>
       <c r="E5" t="n">
         <v>942</v>
@@ -4335,16 +4335,16 @@
         <v>166</v>
       </c>
       <c r="G5" t="n">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,8371;31,1482;41,868</t>
+          <t>21,8371;31,1482;41,1036</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,942;31,166;41,99</t>
+          <t>21,942;31,166;41,119</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
         <v>2367</v>
       </c>
       <c r="D6" t="n">
-        <v>1386</v>
+        <v>1656</v>
       </c>
       <c r="E6" t="n">
         <v>1506</v>
@@ -4368,16 +4368,16 @@
         <v>266</v>
       </c>
       <c r="G6" t="n">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,13376;31,2367;41,1386</t>
+          <t>21,13376;31,2367;41,1656</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,1506;31,266;41,159</t>
+          <t>21,1506;31,266;41,190</t>
         </is>
       </c>
     </row>
@@ -4392,7 +4392,7 @@
         <v>3472</v>
       </c>
       <c r="D7" t="n">
-        <v>2033</v>
+        <v>2429</v>
       </c>
       <c r="E7" t="n">
         <v>2209</v>
@@ -4401,16 +4401,16 @@
         <v>391</v>
       </c>
       <c r="G7" t="n">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,19615;31,3472;41,2033</t>
+          <t>21,19615;31,3472;41,2429</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,2209;31,391;41,233</t>
+          <t>21,2209;31,391;41,279</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
         <v>4799</v>
       </c>
       <c r="D8" t="n">
-        <v>2811</v>
+        <v>3358</v>
       </c>
       <c r="E8" t="n">
         <v>3053</v>
@@ -4434,16 +4434,16 @@
         <v>540</v>
       </c>
       <c r="G8" t="n">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,27114;31,4799;41,2811</t>
+          <t>21,27114;31,4799;41,3358</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,3053;31,540;41,323</t>
+          <t>21,3053;31,540;41,386</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
         <v>6353</v>
       </c>
       <c r="D9" t="n">
-        <v>3721</v>
+        <v>4444</v>
       </c>
       <c r="E9" t="n">
         <v>4041</v>
@@ -4467,16 +4467,16 @@
         <v>715</v>
       </c>
       <c r="G9" t="n">
-        <v>427</v>
+        <v>511</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,35890;31,6353;41,3721</t>
+          <t>21,35890;31,6353;41,4444</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,4041;31,715;41,427</t>
+          <t>21,4041;31,715;41,511</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
         <v>8136</v>
       </c>
       <c r="D10" t="n">
-        <v>4765</v>
+        <v>5692</v>
       </c>
       <c r="E10" t="n">
         <v>5176</v>
@@ -4500,16 +4500,16 @@
         <v>916</v>
       </c>
       <c r="G10" t="n">
-        <v>547</v>
+        <v>654</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,45961;31,8136;41,4765</t>
+          <t>21,45961;31,8136;41,5692</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,5176;31,916;41,547</t>
+          <t>21,5176;31,916;41,654</t>
         </is>
       </c>
     </row>
@@ -4524,7 +4524,7 @@
         <v>10151</v>
       </c>
       <c r="D11" t="n">
-        <v>5946</v>
+        <v>7101</v>
       </c>
       <c r="E11" t="n">
         <v>6457</v>
@@ -4533,16 +4533,16 @@
         <v>1143</v>
       </c>
       <c r="G11" t="n">
-        <v>683</v>
+        <v>816</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,57344;31,10151;41,5946</t>
+          <t>21,57344;31,10151;41,7101</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,6457;31,1143;41,683</t>
+          <t>21,6457;31,1143;41,816</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
         <v>12400</v>
       </c>
       <c r="D12" t="n">
-        <v>7263</v>
+        <v>8675</v>
       </c>
       <c r="E12" t="n">
         <v>7888</v>
@@ -4566,16 +4566,16 @@
         <v>1396</v>
       </c>
       <c r="G12" t="n">
-        <v>835</v>
+        <v>997</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,70050;31,12400;41,7263</t>
+          <t>21,70050;31,12400;41,8675</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,7888;31,1396;41,835</t>
+          <t>21,7888;31,1396;41,997</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
         <v>14886</v>
       </c>
       <c r="D13" t="n">
-        <v>8719</v>
+        <v>10414</v>
       </c>
       <c r="E13" t="n">
         <v>9470</v>
@@ -4599,16 +4599,16 @@
         <v>1676</v>
       </c>
       <c r="G13" t="n">
-        <v>1002</v>
+        <v>1197</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,84095;31,14886;41,8719</t>
+          <t>21,84095;31,14886;41,10414</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,9470;31,1676;41,1002</t>
+          <t>21,9470;31,1676;41,1197</t>
         </is>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
         <v>17611</v>
       </c>
       <c r="D14" t="n">
-        <v>10316</v>
+        <v>12321</v>
       </c>
       <c r="E14" t="n">
         <v>11204</v>
@@ -4632,16 +4632,16 @@
         <v>1983</v>
       </c>
       <c r="G14" t="n">
-        <v>1185</v>
+        <v>1416</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,99487;31,17611;41,10316</t>
+          <t>21,99487;31,17611;41,12321</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,11204;31,1983;41,1185</t>
+          <t>21,11204;31,1983;41,1416</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>20577</v>
       </c>
       <c r="D15" t="n">
-        <v>12053</v>
+        <v>14396</v>
       </c>
       <c r="E15" t="n">
         <v>13090</v>
@@ -4665,16 +4665,16 @@
         <v>2317</v>
       </c>
       <c r="G15" t="n">
-        <v>1385</v>
+        <v>1655</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,116240;31,20577;41,12053</t>
+          <t>21,116240;31,20577;41,14396</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,13090;31,2317;41,1385</t>
+          <t>21,13090;31,2317;41,1655</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
         <v>23785</v>
       </c>
       <c r="D16" t="n">
-        <v>13932</v>
+        <v>16640</v>
       </c>
       <c r="E16" t="n">
         <v>15131</v>
@@ -4698,16 +4698,16 @@
         <v>2678</v>
       </c>
       <c r="G16" t="n">
-        <v>1601</v>
+        <v>1913</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,134363;31,23785;41,13932</t>
+          <t>21,134363;31,23785;41,16640</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,15131;31,2678;41,1601</t>
+          <t>21,15131;31,2678;41,1913</t>
         </is>
       </c>
     </row>
@@ -4722,7 +4722,7 @@
         <v>27238</v>
       </c>
       <c r="D17" t="n">
-        <v>15954</v>
+        <v>19055</v>
       </c>
       <c r="E17" t="n">
         <v>17327</v>
@@ -4731,16 +4731,16 @@
         <v>3067</v>
       </c>
       <c r="G17" t="n">
-        <v>1834</v>
+        <v>2190</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,153865;31,27238;41,15954</t>
+          <t>21,153865;31,27238;41,19055</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,17327;31,3067;41,1834</t>
+          <t>21,17327;31,3067;41,2190</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
         <v>30936</v>
       </c>
       <c r="D18" t="n">
-        <v>18120</v>
+        <v>21643</v>
       </c>
       <c r="E18" t="n">
         <v>19680</v>
@@ -4764,16 +4764,16 @@
         <v>3483</v>
       </c>
       <c r="G18" t="n">
-        <v>2083</v>
+        <v>2488</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>21,174756;31,30936;41,18120</t>
+          <t>21,174756;31,30936;41,21643</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>21,19680;31,3483;41,2083</t>
+          <t>21,19680;31,3483;41,2488</t>
         </is>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
         <v>34881</v>
       </c>
       <c r="D19" t="n">
-        <v>20431</v>
+        <v>24403</v>
       </c>
       <c r="E19" t="n">
         <v>22190</v>
@@ -4797,16 +4797,16 @@
         <v>3928</v>
       </c>
       <c r="G19" t="n">
-        <v>2348</v>
+        <v>2805</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>21,197043;31,34881;41,20431</t>
+          <t>21,197043;31,34881;41,24403</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>21,22190;31,3928;41,2348</t>
+          <t>21,22190;31,3928;41,2805</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
         <v>39075</v>
       </c>
       <c r="D20" t="n">
-        <v>22888</v>
+        <v>27337</v>
       </c>
       <c r="E20" t="n">
         <v>24858</v>
@@ -4830,16 +4830,16 @@
         <v>4400</v>
       </c>
       <c r="G20" t="n">
-        <v>2631</v>
+        <v>3142</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>21,220735;31,39075;41,22888</t>
+          <t>21,220735;31,39075;41,27337</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21,24858;31,4400;41,2631</t>
+          <t>21,24858;31,4400;41,3142</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
         <v>43520</v>
       </c>
       <c r="D21" t="n">
-        <v>25491</v>
+        <v>30446</v>
       </c>
       <c r="E21" t="n">
         <v>27685</v>
@@ -4863,16 +4863,16 @@
         <v>4901</v>
       </c>
       <c r="G21" t="n">
-        <v>2930</v>
+        <v>3500</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21,245840;31,43520;41,25491</t>
+          <t>21,245840;31,43520;41,30446</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>21,27685;31,4901;41,2930</t>
+          <t>21,27685;31,4901;41,3500</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
         <v>48215</v>
       </c>
       <c r="D22" t="n">
-        <v>28241</v>
+        <v>33731</v>
       </c>
       <c r="E22" t="n">
         <v>30672</v>
@@ -4896,16 +4896,16 @@
         <v>5429</v>
       </c>
       <c r="G22" t="n">
-        <v>3246</v>
+        <v>3877</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>21,272364;31,48215;41,28241</t>
+          <t>21,272364;31,48215;41,33731</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>21,30672;31,5429;41,3246</t>
+          <t>21,30672;31,5429;41,3877</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
         <v>53163</v>
       </c>
       <c r="D23" t="n">
-        <v>31140</v>
+        <v>37193</v>
       </c>
       <c r="E23" t="n">
         <v>33820</v>
@@ -4929,16 +4929,16 @@
         <v>5987</v>
       </c>
       <c r="G23" t="n">
-        <v>3580</v>
+        <v>4275</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>21,300315;31,53163;41,31140</t>
+          <t>21,300315;31,53163;41,37193</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>21,33820;31,5987;41,3580</t>
+          <t>21,33820;31,5987;41,4275</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
         <v>58365</v>
       </c>
       <c r="D24" t="n">
-        <v>34186</v>
+        <v>40832</v>
       </c>
       <c r="E24" t="n">
         <v>37129</v>
@@ -4962,16 +4962,16 @@
         <v>6572</v>
       </c>
       <c r="G24" t="n">
-        <v>3930</v>
+        <v>4694</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>21,329699;31,58365;41,34186</t>
+          <t>21,329699;31,58365;41,40832</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>21,37129;31,6572;41,3930</t>
+          <t>21,37129;31,6572;41,4694</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
         <v>63821</v>
       </c>
       <c r="D25" t="n">
-        <v>37383</v>
+        <v>44649</v>
       </c>
       <c r="E25" t="n">
         <v>40600</v>
@@ -4995,16 +4995,16 @@
         <v>7187</v>
       </c>
       <c r="G25" t="n">
-        <v>4297</v>
+        <v>5133</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>21,360523;31,63821;41,37383</t>
+          <t>21,360523;31,63821;41,44649</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>21,40600;31,7187;41,4297</t>
+          <t>21,40600;31,7187;41,5133</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
         <v>69534</v>
       </c>
       <c r="D26" t="n">
-        <v>40729</v>
+        <v>48646</v>
       </c>
       <c r="E26" t="n">
         <v>44235</v>
@@ -5028,16 +5028,16 @@
         <v>7830</v>
       </c>
       <c r="G26" t="n">
-        <v>4682</v>
+        <v>5592</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>21,392792;31,69534;41,40729</t>
+          <t>21,392792;31,69534;41,48646</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>21,44235;31,7830;41,4682</t>
+          <t>21,44235;31,7830;41,5592</t>
         </is>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
         <v>75504</v>
       </c>
       <c r="D27" t="n">
-        <v>44225</v>
+        <v>52822</v>
       </c>
       <c r="E27" t="n">
         <v>48032</v>
@@ -5061,16 +5061,16 @@
         <v>8503</v>
       </c>
       <c r="G27" t="n">
-        <v>5084</v>
+        <v>6072</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>21,426514;31,75504;41,44225</t>
+          <t>21,426514;31,75504;41,52822</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>21,48032;31,8503;41,5084</t>
+          <t>21,48032;31,8503;41,6072</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
         <v>81731</v>
       </c>
       <c r="D28" t="n">
-        <v>47873</v>
+        <v>57179</v>
       </c>
       <c r="E28" t="n">
         <v>51994</v>
@@ -5094,16 +5094,16 @@
         <v>9204</v>
       </c>
       <c r="G28" t="n">
-        <v>5503</v>
+        <v>6573</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>21,461693;31,81731;41,47873</t>
+          <t>21,461693;31,81731;41,57179</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>21,51994;31,9204;41,5503</t>
+          <t>21,51994;31,9204;41,6573</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
         <v>88218</v>
       </c>
       <c r="D29" t="n">
-        <v>51673</v>
+        <v>61717</v>
       </c>
       <c r="E29" t="n">
         <v>56120</v>
@@ -5127,16 +5127,16 @@
         <v>9934</v>
       </c>
       <c r="G29" t="n">
-        <v>5940</v>
+        <v>7095</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>21,498335;31,88218;41,51673</t>
+          <t>21,498335;31,88218;41,61717</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>21,56120;31,9934;41,5940</t>
+          <t>21,56120;31,9934;41,7095</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
         <v>94964</v>
       </c>
       <c r="D30" t="n">
-        <v>55624</v>
+        <v>66437</v>
       </c>
       <c r="E30" t="n">
         <v>60412</v>
@@ -5160,16 +5160,16 @@
         <v>10694</v>
       </c>
       <c r="G30" t="n">
-        <v>6394</v>
+        <v>7638</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>21,536445;31,94964;41,55624</t>
+          <t>21,536445;31,94964;41,66437</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>21,60412;31,10694;41,6394</t>
+          <t>21,60412;31,10694;41,7638</t>
         </is>
       </c>
     </row>
@@ -5184,7 +5184,7 @@
         <v>101971</v>
       </c>
       <c r="D31" t="n">
-        <v>59729</v>
+        <v>71339</v>
       </c>
       <c r="E31" t="n">
         <v>64870</v>
@@ -5193,16 +5193,16 @@
         <v>11483</v>
       </c>
       <c r="G31" t="n">
-        <v>6866</v>
+        <v>8201</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>21,576028;31,101971;41,59729</t>
+          <t>21,576028;31,101971;41,71339</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>21,64870;31,11483;41,6866</t>
+          <t>21,64870;31,11483;41,8201</t>
         </is>
       </c>
     </row>
@@ -5453,7 +5453,7 @@
         <v>1297</v>
       </c>
       <c r="D2" t="n">
-        <v>586</v>
+        <v>683</v>
       </c>
       <c r="E2" t="n">
         <v>44</v>
@@ -5471,7 +5471,7 @@
         <v>2008</v>
       </c>
       <c r="J2" t="n">
-        <v>907</v>
+        <v>1058</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>628</v>
       </c>
       <c r="V2" t="n">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="W2" t="n">
         <v>38</v>
@@ -5525,7 +5525,7 @@
         <v>973</v>
       </c>
       <c r="AB2" t="n">
-        <v>487</v>
+        <v>567</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,8152;31,1297;41,586;22,44;32,36;42,40</t>
+          <t>21,8152;31,1297;41,683;22,44;32,36;42,40</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,0;31,2008;41,907;22,0;32,81;42,91</t>
+          <t>21,0;31,2008;41,1058;22,0;32,81;42,91</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,3988;31,628;41,314;22,38;32,31;42,35</t>
+          <t>21,3988;31,628;41,366;22,38;32,31;42,35</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,973;41,487;22,0;32,70;42,80</t>
+          <t>21,0;31,973;41,567;22,0;32,70;42,80</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -5596,7 +5596,7 @@
         <v>2492</v>
       </c>
       <c r="D3" t="n">
-        <v>1237</v>
+        <v>1454</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
@@ -5614,7 +5614,7 @@
         <v>3858</v>
       </c>
       <c r="J3" t="n">
-        <v>1915</v>
+        <v>2251</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         <v>697</v>
       </c>
       <c r="V3" t="n">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="W3" t="n">
         <v>77</v>
@@ -5668,7 +5668,7 @@
         <v>1079</v>
       </c>
       <c r="AB3" t="n">
-        <v>595</v>
+        <v>698</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -5699,12 +5699,12 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,16394;31,2492;41,1237;22,88;32,72;42,81</t>
+          <t>21,16394;31,2492;41,1454;22,88;32,72;42,81</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,0;31,3858;41,1915;22,0;32,162;42,183</t>
+          <t>21,0;31,3858;41,2251;22,0;32,162;42,183</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -5714,12 +5714,12 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,4591;31,697;41,384;22,77;32,63;42,71</t>
+          <t>21,4591;31,697;41,451;22,77;32,63;42,71</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,1079;41,595;22,0;32,141;42,160</t>
+          <t>21,0;31,1079;41,698;22,0;32,141;42,160</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -5739,7 +5739,7 @@
         <v>3561</v>
       </c>
       <c r="D4" t="n">
-        <v>1967</v>
+        <v>2337</v>
       </c>
       <c r="E4" t="n">
         <v>132</v>
@@ -5757,7 +5757,7 @@
         <v>5514</v>
       </c>
       <c r="J4" t="n">
-        <v>3046</v>
+        <v>3618</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>816</v>
       </c>
       <c r="V4" t="n">
-        <v>503</v>
+        <v>598</v>
       </c>
       <c r="W4" t="n">
         <v>115</v>
@@ -5811,7 +5811,7 @@
         <v>1264</v>
       </c>
       <c r="AB4" t="n">
-        <v>779</v>
+        <v>926</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -5842,12 +5842,12 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,24463;31,3561;41,1967;22,132;32,108;42,122</t>
+          <t>21,24463;31,3561;41,2337;22,132;32,108;42,122</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,0;31,5514;41,3046;22,0;32,243;42,275</t>
+          <t>21,0;31,5514;41,3618;22,0;32,243;42,275</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -5857,12 +5857,12 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5614;31,816;41,503;22,115;32,94;42,107</t>
+          <t>21,5614;31,816;41,598;22,115;32,94;42,107</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,1264;41,779;22,0;32,212;42,241</t>
+          <t>21,0;31,1264;41,926;22,0;32,212;42,241</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -5882,7 +5882,7 @@
         <v>4730</v>
       </c>
       <c r="D5" t="n">
-        <v>2642</v>
+        <v>3143</v>
       </c>
       <c r="E5" t="n">
         <v>176</v>
@@ -5900,7 +5900,7 @@
         <v>7323</v>
       </c>
       <c r="J5" t="n">
-        <v>4091</v>
+        <v>4866</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -5936,7 +5936,7 @@
         <v>874</v>
       </c>
       <c r="V5" t="n">
-        <v>547</v>
+        <v>650</v>
       </c>
       <c r="W5" t="n">
         <v>154</v>
@@ -5954,7 +5954,7 @@
         <v>1354</v>
       </c>
       <c r="AB5" t="n">
-        <v>847</v>
+        <v>1007</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -5985,12 +5985,12 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,32535;31,4730;41,2642;22,176;32,144;42,163</t>
+          <t>21,32535;31,4730;41,3143;22,176;32,144;42,163</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,0;31,7323;41,4091;22,0;32,324;42,367</t>
+          <t>21,0;31,7323;41,4866;22,0;32,324;42,367</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -6000,12 +6000,12 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,6018;31,874;41,547;22,154;32,126;42,143</t>
+          <t>21,6018;31,874;41,650;22,154;32,126;42,143</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,1354;41,847;22,0;32,283;42,321</t>
+          <t>21,0;31,1354;41,1007;22,0;32,283;42,321</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -6025,7 +6025,7 @@
         <v>5892</v>
       </c>
       <c r="D6" t="n">
-        <v>3327</v>
+        <v>3962</v>
       </c>
       <c r="E6" t="n">
         <v>220</v>
@@ -6043,7 +6043,7 @@
         <v>9121</v>
       </c>
       <c r="J6" t="n">
-        <v>5151</v>
+        <v>6134</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>936</v>
       </c>
       <c r="V6" t="n">
-        <v>593</v>
+        <v>707</v>
       </c>
       <c r="W6" t="n">
         <v>192</v>
@@ -6097,7 +6097,7 @@
         <v>1449</v>
       </c>
       <c r="AB6" t="n">
-        <v>919</v>
+        <v>1094</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,40573;31,5892;41,3327;22,220;32,180;42,204</t>
+          <t>21,40573;31,5892;41,3962;22,220;32,180;42,204</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,0;31,9121;41,5151;22,0;32,405;42,459</t>
+          <t>21,0;31,9121;41,6134;22,0;32,405;42,459</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6449;31,936;41,593;22,192;32,157;42,178</t>
+          <t>21,6449;31,936;41,707;22,192;32,157;42,178</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,1449;41,919;22,0;32,354;42,402</t>
+          <t>21,0;31,1449;41,1094;22,0;32,354;42,402</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -6168,7 +6168,7 @@
         <v>6862</v>
       </c>
       <c r="D7" t="n">
-        <v>4307</v>
+        <v>5134</v>
       </c>
       <c r="E7" t="n">
         <v>264</v>
@@ -6186,7 +6186,7 @@
         <v>10624</v>
       </c>
       <c r="J7" t="n">
-        <v>6668</v>
+        <v>7948</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>1002</v>
       </c>
       <c r="V7" t="n">
-        <v>644</v>
+        <v>767</v>
       </c>
       <c r="W7" t="n">
         <v>231</v>
@@ -6240,7 +6240,7 @@
         <v>1551</v>
       </c>
       <c r="AB7" t="n">
-        <v>997</v>
+        <v>1188</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -6271,12 +6271,12 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,47299;31,6862;41,4307;22,264;32,216;42,245</t>
+          <t>21,47299;31,6862;41,5134;22,264;32,216;42,245</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,0;31,10624;41,6668;22,0;32,486;42,551</t>
+          <t>21,0;31,10624;41,7948;22,0;32,486;42,551</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -6286,12 +6286,12 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6907;31,1002;41,644;22,231;32,189;42,214</t>
+          <t>21,6907;31,1002;41,767;22,231;32,189;42,214</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,1551;41,997;22,0;32,425;42,482</t>
+          <t>21,0;31,1551;41,1188;22,0;32,425;42,482</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -6311,7 +6311,7 @@
         <v>7828</v>
       </c>
       <c r="D8" t="n">
-        <v>5288</v>
+        <v>6310</v>
       </c>
       <c r="E8" t="n">
         <v>308</v>
@@ -6329,7 +6329,7 @@
         <v>12119</v>
       </c>
       <c r="J8" t="n">
-        <v>8187</v>
+        <v>9769</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>1071</v>
       </c>
       <c r="V8" t="n">
-        <v>697</v>
+        <v>832</v>
       </c>
       <c r="W8" t="n">
         <v>269</v>
@@ -6383,7 +6383,7 @@
         <v>1659</v>
       </c>
       <c r="AB8" t="n">
-        <v>1079</v>
+        <v>1288</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -6414,12 +6414,12 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,54006;31,7828;41,5288;22,308;32,252;42,286</t>
+          <t>21,54006;31,7828;41,6310;22,308;32,252;42,286</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,0;31,12119;41,8187;22,0;32,567;42,643</t>
+          <t>21,0;31,12119;41,9769;22,0;32,567;42,643</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -6429,12 +6429,12 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,7395;31,1071;41,697;22,269;32,220;42,250</t>
+          <t>21,7395;31,1071;41,832;22,269;32,220;42,250</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,1659;41,1079;22,0;32,496;42,563</t>
+          <t>21,0;31,1659;41,1288;22,0;32,496;42,563</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -6454,7 +6454,7 @@
         <v>8867</v>
       </c>
       <c r="D9" t="n">
-        <v>6153</v>
+        <v>7349</v>
       </c>
       <c r="E9" t="n">
         <v>346</v>
@@ -6472,7 +6472,7 @@
         <v>13727</v>
       </c>
       <c r="J9" t="n">
-        <v>9525</v>
+        <v>11377</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>1189</v>
       </c>
       <c r="V9" t="n">
-        <v>788</v>
+        <v>942</v>
       </c>
       <c r="W9" t="n">
         <v>308</v>
@@ -6526,7 +6526,7 @@
         <v>1841</v>
       </c>
       <c r="AB9" t="n">
-        <v>1221</v>
+        <v>1458</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -6557,12 +6557,12 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,61220;31,8867;41,6153;22,346;32,283;42,321</t>
+          <t>21,61220;31,8867;41,7349;22,346;32,283;42,321</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,0;31,13727;41,9525;22,0;32,637;42,724</t>
+          <t>21,0;31,13727;41,11377;22,0;32,637;42,724</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -6572,12 +6572,12 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,8214;31,1189;41,788;22,308;32,252;42,286</t>
+          <t>21,8214;31,1189;41,942;22,308;32,252;42,286</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,1841;41,1221;22,0;32,567;42,643</t>
+          <t>21,0;31,1841;41,1458;22,0;32,567;42,643</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -6597,7 +6597,7 @@
         <v>10064</v>
       </c>
       <c r="D10" t="n">
-        <v>6777</v>
+        <v>8094</v>
       </c>
       <c r="E10" t="n">
         <v>368</v>
@@ -6615,7 +6615,7 @@
         <v>15581</v>
       </c>
       <c r="J10" t="n">
-        <v>10491</v>
+        <v>12531</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6651,7 +6651,7 @@
         <v>1288</v>
       </c>
       <c r="V10" t="n">
-        <v>864</v>
+        <v>1033</v>
       </c>
       <c r="W10" t="n">
         <v>346</v>
@@ -6669,7 +6669,7 @@
         <v>1994</v>
       </c>
       <c r="AB10" t="n">
-        <v>1338</v>
+        <v>1599</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -6700,12 +6700,12 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,69487;31,10064;41,6777;22,368;32,301;42,342</t>
+          <t>21,69487;31,10064;41,8094;22,368;32,301;42,342</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,0;31,15581;41,10491;22,0;32,678;42,770</t>
+          <t>21,0;31,15581;41,12531;22,0;32,678;42,770</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -6715,12 +6715,12 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,8893;31,1288;41,864;22,346;32,283;42,321</t>
+          <t>21,8893;31,1288;41,1033;22,346;32,283;42,321</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,1994;41,1338;22,0;32,637;42,724</t>
+          <t>21,0;31,1994;41,1599;22,0;32,637;42,724</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -6740,7 +6740,7 @@
         <v>11242</v>
       </c>
       <c r="D11" t="n">
-        <v>7479</v>
+        <v>8932</v>
       </c>
       <c r="E11" t="n">
         <v>385</v>
@@ -6758,7 +6758,7 @@
         <v>17404</v>
       </c>
       <c r="J11" t="n">
-        <v>11578</v>
+        <v>13829</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -6794,7 +6794,7 @@
         <v>1388</v>
       </c>
       <c r="V11" t="n">
-        <v>943</v>
+        <v>1126</v>
       </c>
       <c r="W11" t="n">
         <v>385</v>
@@ -6812,7 +6812,7 @@
         <v>2150</v>
       </c>
       <c r="AB11" t="n">
-        <v>1460</v>
+        <v>1744</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -6843,12 +6843,12 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,77619;31,11242;41,7479;22,385;32,315;42,357</t>
+          <t>21,77619;31,11242;41,8932;22,385;32,315;42,357</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,0;31,17404;41,11578;22,0;32,708;42,804</t>
+          <t>21,0;31,17404;41,13829;22,0;32,708;42,804</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
@@ -6858,12 +6858,12 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,9588;31,1388;41,943;22,385;32,315;42,357</t>
+          <t>21,9588;31,1388;41,1126;22,385;32,315;42,357</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,2150;41,1460;22,0;32,708;42,804</t>
+          <t>21,0;31,2150;41,1744;22,0;32,708;42,804</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -7139,31 +7139,31 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35433.0588528</v>
+        <v>7701.5368</v>
       </c>
       <c r="U2" t="n">
-        <v>4304.155876</v>
+        <v>1513.8472</v>
       </c>
       <c r="V2" t="n">
-        <v>2477.2506167</v>
+        <v>536.7363</v>
       </c>
       <c r="W2" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB2" t="n">
-        <v>2200</v>
+        <v>200</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -7250,31 +7250,31 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>47575.8414572</v>
+        <v>20554.9482</v>
       </c>
       <c r="U3" t="n">
-        <v>6658.292799</v>
+        <v>3765.4878</v>
       </c>
       <c r="V3" t="n">
-        <v>3407.570021</v>
+        <v>1596.152</v>
       </c>
       <c r="W3" t="n">
-        <v>1300</v>
+        <v>638</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB3" t="n">
         <v>400</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2200</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -7361,31 +7361,31 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>82119.9109208</v>
+        <v>58666.89479999999</v>
       </c>
       <c r="U4" t="n">
-        <v>12533.95075</v>
+        <v>9678.15</v>
       </c>
       <c r="V4" t="n">
-        <v>6359.9833</v>
+        <v>5004.708000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB4" t="n">
-        <v>2200</v>
+        <v>750</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -7472,31 +7472,31 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>90440.98925791999</v>
+        <v>66987.97313711999</v>
       </c>
       <c r="U5" t="n">
-        <v>13857.56969</v>
+        <v>11001.76894</v>
       </c>
       <c r="V5" t="n">
-        <v>6957.8869</v>
+        <v>5701.606832</v>
       </c>
       <c r="W5" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA5" t="n">
-        <v>1670</v>
+        <v>1270</v>
       </c>
       <c r="AB5" t="n">
-        <v>2200</v>
+        <v>750</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -7521,12 +7521,12 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>21,0.0;31,2067.892615;41,934.08069</t>
+          <t>21,0;31,2067;41,1089</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7591,31 +7591,31 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>89629.61284304</v>
+        <v>75629.61284304</v>
       </c>
       <c r="U6" t="n">
-        <v>13600.35863</v>
+        <v>12260.35863</v>
       </c>
       <c r="V6" t="n">
-        <v>6787.83609</v>
+        <v>6511.176090800001</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1670</v>
+        <v>1270</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7640,12 +7640,12 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>21,0.0;31,3977.78523;41,1969.45897</t>
+          <t>21,0;31,3977;41,2314</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>289947.6238032</v>
+        <v>246966.7992</v>
       </c>
       <c r="U7" t="n">
-        <v>45358.0248</v>
+        <v>38988.56</v>
       </c>
       <c r="V7" t="n">
-        <v>24994.6038955</v>
+        <v>23482.708</v>
       </c>
       <c r="W7" t="n">
         <v>1940</v>
@@ -7734,7 +7734,7 @@
         <v>3090</v>
       </c>
       <c r="AB7" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>40552.766816</v>
       </c>
       <c r="V8" t="n">
-        <v>21365.2016615</v>
+        <v>24365.299788</v>
       </c>
       <c r="W8" t="n">
         <v>1940</v>
@@ -7870,12 +7870,12 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0.0;31,2259.671536;41,1045.98608815</t>
+          <t>21,0;31,2259;41,1223</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
         <v>47148.71088</v>
       </c>
       <c r="V9" t="n">
-        <v>25425.8058391</v>
+        <v>29212.0025592</v>
       </c>
       <c r="W9" t="n">
         <v>1940</v>
@@ -7964,7 +7964,7 @@
         <v>3090</v>
       </c>
       <c r="AB9" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7989,12 +7989,12 @@
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>21,0.0;31,10379.357680000001;41,5852.03971935</t>
+          <t>21,0;31,10379;41,6966</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
         <v>48702.23888</v>
       </c>
       <c r="V10" t="n">
-        <v>26494.9295941</v>
+        <v>30482.1321192</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -8083,7 +8083,7 @@
         <v>3090</v>
       </c>
       <c r="AB10" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8108,12 +8108,12 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0.0;31,10379.357680000001;41,5852.03971935</t>
+          <t>21,0;31,10379;41,6966</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8184,7 +8184,7 @@
         <v>56025.21944</v>
       </c>
       <c r="V11" t="n">
-        <v>31949.73325555</v>
+        <v>36999.8757116</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -8202,7 +8202,7 @@
         <v>3090</v>
       </c>
       <c r="AB11" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8227,12 +8227,12 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0.0;31,19603.795648;41,12805.9649986</t>
+          <t>21,0;31,19603;41,15287</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8303,7 +8303,7 @@
         <v>50255.76688</v>
       </c>
       <c r="V12" t="n">
-        <v>27564.0533491</v>
+        <v>31752.2616792</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
@@ -8321,7 +8321,7 @@
         <v>3020</v>
       </c>
       <c r="AB12" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8346,12 +8346,12 @@
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>21,0.0;31,10379.357680000001;41,5852.03971935</t>
+          <t>21,0;31,10379;41,6966</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8422,7 +8422,7 @@
         <v>74153.7130738</v>
       </c>
       <c r="V13" t="n">
-        <v>44168.2053023</v>
+        <v>51038.2408177</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
@@ -8440,7 +8440,7 @@
         <v>3160</v>
       </c>
       <c r="AB13" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8465,12 +8465,12 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0.0;31,12883.0661698;41,8075.57777862</t>
+          <t>21,0;31,12883;41,9623</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
         <v>75287.0513086</v>
       </c>
       <c r="V14" t="n">
-        <v>45253.94339472</v>
+        <v>52338.93577328</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
@@ -8559,7 +8559,7 @@
         <v>3230</v>
       </c>
       <c r="AB14" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8584,12 +8584,12 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0.0;31,14754.5771981;41,9829.59983966</t>
+          <t>21,0;31,14754;41,11724</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8660,7 +8660,7 @@
         <v>177764.1191808</v>
       </c>
       <c r="V15" t="n">
-        <v>115313.75169</v>
+        <v>131954.49846</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
@@ -8678,7 +8678,7 @@
         <v>3510</v>
       </c>
       <c r="AB15" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8703,12 +8703,12 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0.0;31,20279.9830912;41,14160.47516</t>
+          <t>21,0;31,20279;41,16907</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
         <v>895267.64632415</v>
       </c>
       <c r="V16" t="n">
-        <v>550819.64786345</v>
+        <v>643175.8441886801</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
@@ -8797,7 +8797,7 @@
         <v>4070</v>
       </c>
       <c r="AB16" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8822,12 +8822,12 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0.0;31,62526.58218268;41,41591.9449894</t>
+          <t>21,0;31,62526;41,49677</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -8898,7 +8898,7 @@
         <v>1445688.49146315</v>
       </c>
       <c r="V17" t="n">
-        <v>881631.17454795</v>
+        <v>1028179.32439548</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
@@ -8916,7 +8916,7 @@
         <v>4980</v>
       </c>
       <c r="AB17" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8941,12 +8941,12 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0.0;31,62526.58218268;41,41591.9449894</t>
+          <t>21,0;31,62526;41,49677</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9011,31 +9011,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>233655.55674106</v>
+        <v>219655.55674106</v>
       </c>
       <c r="U18" t="n">
-        <v>41617.04984358</v>
+        <v>40277.04984358</v>
       </c>
       <c r="V18" t="n">
-        <v>19346.10657</v>
+        <v>20942.0896324</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA18" t="n">
-        <v>1670</v>
+        <v>1270</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9060,12 +9060,12 @@
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0.0;31,1217.5316426;41,610.25072</t>
+          <t>21,0;31,1217;41,710</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9130,31 +9130,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>318791.24752922</v>
+        <v>289391.24752922</v>
       </c>
       <c r="U19" t="n">
-        <v>53234.23819486</v>
+        <v>50420.23819486</v>
       </c>
       <c r="V19" t="n">
-        <v>27610.21864706</v>
+        <v>29246.99211422</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>1100</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>590</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA19" t="n">
-        <v>3020</v>
+        <v>1940</v>
       </c>
       <c r="AB19" t="n">
-        <v>2100</v>
+        <v>1325</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9179,12 +9179,12 @@
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0.0;31,1639.78805102;41,906.2660255999999</t>
+          <t>21,0;31,1639;41,1063</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9255,7 +9255,7 @@
         <v>67279.9662757</v>
       </c>
       <c r="V20" t="n">
-        <v>38569.6410304</v>
+        <v>44454.8645248</v>
       </c>
       <c r="W20" t="n">
         <v>1940</v>
@@ -9273,7 +9273,7 @@
         <v>3090</v>
       </c>
       <c r="AB20" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -9298,12 +9298,12 @@
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0.0;31,3144.0104454;41,1980.8984971</t>
+          <t>21,0;31,3144;41,2355</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9374,7 +9374,7 @@
         <v>79563.93935300001</v>
       </c>
       <c r="V21" t="n">
-        <v>46323.7537578</v>
+        <v>53368.7675622</v>
       </c>
       <c r="W21" t="n">
         <v>1940</v>
@@ -9392,7 +9392,7 @@
         <v>3230</v>
       </c>
       <c r="AB21" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -9417,12 +9417,12 @@
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0.0;31,4233.730494400001;41,2723.29334667</t>
+          <t>21,0;31,4233;41,3245</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
         <v>96826.53834239999</v>
       </c>
       <c r="V22" t="n">
-        <v>56332.43973271999</v>
+        <v>64580.84814287999</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
@@ -9511,7 +9511,7 @@
         <v>3510</v>
       </c>
       <c r="AB22" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9536,12 +9536,12 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0.0;31,5147.2287104;41,3384.12714741</t>
+          <t>21,0;31,5147;41,4038</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>
@@ -9612,7 +9612,7 @@
         <v>132213.47452355</v>
       </c>
       <c r="V23" t="n">
-        <v>76924.68397785</v>
+        <v>87558.48367604001</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
@@ -9630,7 +9630,7 @@
         <v>4070</v>
       </c>
       <c r="AB23" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9655,12 +9655,12 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>21,0.0;31,7231.576735160001;41,4910.5626182</t>
+          <t>21,0;31,7231;41,5865</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>21,0.0;31,0.0;41,0.0</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
     </row>

--- a/opm_hero_property/heroes/102.xlsx
+++ b/opm_hero_property/heroes/102.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7077,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7085,31 +7125,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7121,106 +7161,138 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>7701.5368</v>
+        <v>5467416.0293521</v>
       </c>
       <c r="U2" t="n">
-        <v>1513.8472</v>
+        <v>918995.64632415</v>
       </c>
       <c r="V2" t="n">
-        <v>536.7363</v>
+        <v>665015.8441886801</v>
       </c>
       <c r="W2" t="n">
-        <v>550</v>
+        <v>1940</v>
       </c>
       <c r="X2" t="n">
-        <v>80</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>80</v>
+        <v>720</v>
       </c>
       <c r="AA2" t="n">
-        <v>320</v>
+        <v>4070</v>
       </c>
       <c r="AB2" t="n">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,62526;41,49677</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>10562318.42809</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1908641.01129835</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>575203.953685295</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15646951.09307365</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7232,73 +7304,105 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>20554.9482</v>
+        <v>701169.8238004501</v>
       </c>
       <c r="U3" t="n">
-        <v>3765.4878</v>
+        <v>132213.47452355</v>
       </c>
       <c r="V3" t="n">
-        <v>1596.152</v>
+        <v>87558.48367604001</v>
       </c>
       <c r="W3" t="n">
-        <v>638</v>
+        <v>1940</v>
       </c>
       <c r="X3" t="n">
-        <v>160</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>160</v>
+        <v>720</v>
       </c>
       <c r="AA3" t="n">
-        <v>640</v>
+        <v>4070</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>2400</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,7231;41,5865</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>1196249.22963</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>217183.62260355</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67371.576916625</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2131528.079150175</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7307,16 +7411,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7325,10 +7429,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7343,10 +7447,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7357,50 +7461,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>58666.89479999999</v>
+        <v>7701.5368</v>
       </c>
       <c r="U4" t="n">
-        <v>9678.15</v>
+        <v>1513.8472</v>
       </c>
       <c r="V4" t="n">
-        <v>5004.708000000001</v>
+        <v>536.7363</v>
       </c>
       <c r="W4" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7410,6 +7514,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18463.916205</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>22962.816205</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7418,16 +7546,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7436,13 +7564,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7454,10 +7582,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7468,66 +7596,82 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>66987.97313711999</v>
+        <v>20554.9482</v>
       </c>
       <c r="U5" t="n">
-        <v>11001.76894</v>
+        <v>3765.4878</v>
       </c>
       <c r="V5" t="n">
-        <v>5701.606832</v>
+        <v>1596.152</v>
       </c>
       <c r="W5" t="n">
-        <v>900</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="n">
-        <v>1270</v>
+        <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>21,0;31,2067;41,1089</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>46504.58802</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>58411.38802</v>
       </c>
     </row>
     <row r="6">
@@ -7552,16 +7696,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7583,27 +7727,27 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>75629.61284304</v>
+        <v>58666.89479999999</v>
       </c>
       <c r="U6" t="n">
-        <v>12260.35863</v>
+        <v>9678.15</v>
       </c>
       <c r="V6" t="n">
-        <v>6511.176090800001</v>
+        <v>5004.708000000001</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
@@ -7612,7 +7756,7 @@
         <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1270</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
         <v>750</v>
@@ -7630,23 +7774,39 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>21,0;31,3977;41,2314</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>110251.1008</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9640.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>158790.7008</v>
       </c>
     </row>
     <row r="7">
@@ -7656,31 +7816,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7692,10 +7852,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7706,59 +7866,91 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>246966.7992</v>
+        <v>66987.97313711999</v>
       </c>
       <c r="U7" t="n">
-        <v>38988.56</v>
+        <v>11001.76894</v>
       </c>
       <c r="V7" t="n">
-        <v>23482.708</v>
+        <v>5701.606832</v>
       </c>
       <c r="W7" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA7" t="n">
-        <v>3090</v>
+        <v>1270</v>
       </c>
       <c r="AB7" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,2067;41,1089</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>110251.1008</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>21461.21730712</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>180426.91810712</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7767,31 +7959,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7803,10 +7995,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7817,66 +8009,90 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>256935.87471168</v>
+        <v>75629.61284304</v>
       </c>
       <c r="U8" t="n">
-        <v>40552.766816</v>
+        <v>12260.35863</v>
       </c>
       <c r="V8" t="n">
-        <v>24365.299788</v>
+        <v>6511.176090800001</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>3090</v>
+        <v>1270</v>
       </c>
       <c r="AB8" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>21,0;31,2259;41,1223</t>
+          <t>21,0;31,3977;41,2314</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>110251.1008</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>625.5165408</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9815.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>42816.63257134</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>202407.84991214</v>
       </c>
     </row>
     <row r="9">
@@ -7901,7 +8117,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7910,7 +8126,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7932,21 +8148,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>302915.0535296</v>
+        <v>246177.7992</v>
       </c>
       <c r="U9" t="n">
-        <v>47148.71088</v>
+        <v>39145.56</v>
       </c>
       <c r="V9" t="n">
-        <v>29212.0025592</v>
+        <v>23609.708</v>
       </c>
       <c r="W9" t="n">
         <v>1940</v>
@@ -7964,7 +8180,7 @@
         <v>3090</v>
       </c>
       <c r="AB9" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7982,20 +8198,36 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>21,0;31,10379;41,6966</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0</t>
-        </is>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>494262.7342000001</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>663161.9842000001</v>
       </c>
     </row>
     <row r="10">
@@ -8020,7 +8252,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -8029,7 +8261,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8051,21 +8283,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>313398.1814816</v>
+        <v>256146.87471168</v>
       </c>
       <c r="U10" t="n">
-        <v>48702.23888</v>
+        <v>40709.766816</v>
       </c>
       <c r="V10" t="n">
-        <v>30482.1321192</v>
+        <v>24492.299788</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -8083,7 +8315,7 @@
         <v>3090</v>
       </c>
       <c r="AB10" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8101,20 +8333,44 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>21,0;31,10379;41,6966</t>
+          <t>21,0;31,2259;41,1223</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>494262.7342000001</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2850.5716122</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>22986.43371088</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>688998.9895230801</v>
       </c>
     </row>
     <row r="11">
@@ -8139,7 +8395,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8148,7 +8404,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8170,21 +8426,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>363810.1696204</v>
+        <v>302126.0535296</v>
       </c>
       <c r="U11" t="n">
-        <v>56025.21944</v>
+        <v>47305.71088</v>
       </c>
       <c r="V11" t="n">
-        <v>36999.8757116</v>
+        <v>29339.0025592</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -8202,7 +8458,7 @@
         <v>3090</v>
       </c>
       <c r="AB11" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8220,20 +8476,44 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>21,0;31,19603;41,15287</t>
+          <t>21,0;31,10379;41,6966</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>494262.7342000001</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>31706.2877342</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>113840.4513828</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>808708.7233170001</v>
       </c>
     </row>
     <row r="12">
@@ -8258,13 +8538,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8289,27 +8569,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>323881.3094336</v>
+        <v>312609.1814816</v>
       </c>
       <c r="U12" t="n">
-        <v>50255.76688</v>
+        <v>48859.23888</v>
       </c>
       <c r="V12" t="n">
-        <v>31752.2616792</v>
+        <v>30609.1321192</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -8318,10 +8598,10 @@
         <v>720</v>
       </c>
       <c r="AA12" t="n">
-        <v>3020</v>
+        <v>3090</v>
       </c>
       <c r="AB12" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8336,7 +8616,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8354,6 +8634,30 @@
           <t>21,0;31,0;41,0</t>
         </is>
       </c>
+      <c r="AL12" t="n">
+        <v>494262.7342000001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>60562.0038562</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>113840.4513828</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>837564.4394389999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8362,10 +8666,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8380,13 +8684,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8398,10 +8702,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8412,23 +8716,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>467547.13063032</v>
+        <v>363021.1696204</v>
       </c>
       <c r="U13" t="n">
-        <v>74153.7130738</v>
+        <v>56182.21944</v>
       </c>
       <c r="V13" t="n">
-        <v>51038.2408177</v>
+        <v>37126.8757116</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8437,7 +8741,7 @@
         <v>720</v>
       </c>
       <c r="AA13" t="n">
-        <v>3160</v>
+        <v>3090</v>
       </c>
       <c r="AB13" t="n">
         <v>2400</v>
@@ -8446,32 +8750,56 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>21,0;31,12883;41,9623</t>
+          <t>21,0;31,19603;41,15287</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>494262.7342000001</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>89417.71997820001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39618.60000000001</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>223752.3149199</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>976332.0190980999</v>
       </c>
     </row>
     <row r="14">
@@ -8481,10 +8809,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8499,13 +8827,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8517,10 +8845,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8531,23 +8859,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>475406.47092624</v>
+        <v>323092.3094336</v>
       </c>
       <c r="U14" t="n">
-        <v>75287.0513086</v>
+        <v>50412.76688</v>
       </c>
       <c r="V14" t="n">
-        <v>52338.93577328</v>
+        <v>31879.2616792</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8556,7 +8884,7 @@
         <v>720</v>
       </c>
       <c r="AA14" t="n">
-        <v>3230</v>
+        <v>3020</v>
       </c>
       <c r="AB14" t="n">
         <v>2400</v>
@@ -8565,32 +8893,56 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>21,0;31,14754;41,11724</t>
+          <t>21,0;31,10379;41,6966</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>494262.7342000001</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>89417.71997820001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39443.60000000001</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>113840.4513828</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>866245.155561</v>
       </c>
     </row>
     <row r="15">
@@ -8600,10 +8952,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8618,13 +8970,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8636,10 +8988,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8650,23 +9002,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1095741.38541794</v>
+        <v>470047.13063032</v>
       </c>
       <c r="U15" t="n">
-        <v>177764.1191808</v>
+        <v>74961.7130738</v>
       </c>
       <c r="V15" t="n">
-        <v>131954.49846</v>
+        <v>51812.2408177</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8675,7 +9027,7 @@
         <v>720</v>
       </c>
       <c r="AA15" t="n">
-        <v>3510</v>
+        <v>3160</v>
       </c>
       <c r="AB15" t="n">
         <v>2400</v>
@@ -8684,32 +9036,56 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>21,0;31,20279;41,16907</t>
+          <t>21,0;31,12883;41,9623</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>758329.2103500001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>137424.29223475</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>112125.4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>142293.632956565</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1297552.335541315</v>
       </c>
     </row>
     <row r="16">
@@ -8719,10 +9095,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8737,13 +9113,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8755,10 +9131,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8769,23 +9145,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5332539.0293521</v>
+        <v>477906.47092624</v>
       </c>
       <c r="U16" t="n">
-        <v>895267.64632415</v>
+        <v>76095.0513086</v>
       </c>
       <c r="V16" t="n">
-        <v>643175.8441886801</v>
+        <v>53112.93577328</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8794,7 +9170,7 @@
         <v>720</v>
       </c>
       <c r="AA16" t="n">
-        <v>4070</v>
+        <v>3230</v>
       </c>
       <c r="AB16" t="n">
         <v>2400</v>
@@ -8803,32 +9179,56 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>21,0;31,62526;41,49677</t>
+          <t>21,0;31,14754;41,11724</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>758329.2103500001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>137424.29223475</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112300.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>165452.00306719</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1320885.70565194</v>
       </c>
     </row>
     <row r="17">
@@ -8838,10 +9238,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8856,13 +9256,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8874,10 +9274,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8888,23 +9288,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8589578.466768699</v>
+        <v>1133236.38541794</v>
       </c>
       <c r="U17" t="n">
-        <v>1445688.49146315</v>
+        <v>184621.1191808</v>
       </c>
       <c r="V17" t="n">
-        <v>1028179.32439548</v>
+        <v>138587.49846</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8913,7 +9313,7 @@
         <v>720</v>
       </c>
       <c r="AA17" t="n">
-        <v>4980</v>
+        <v>3510</v>
       </c>
       <c r="AB17" t="n">
         <v>2400</v>
@@ -8922,66 +9322,90 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>21,0;31,62526;41,49677</t>
+          <t>21,0;31,20279;41,16907</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>1730537.6243</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>314388.7285634</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>683503.6000000001</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>218937.12104706</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3217224.22391046</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8993,114 +9417,138 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>219655.55674106</v>
+        <v>5467416.0293521</v>
       </c>
       <c r="U18" t="n">
-        <v>40277.04984358</v>
+        <v>918995.64632415</v>
       </c>
       <c r="V18" t="n">
-        <v>20942.0896324</v>
+        <v>665015.8441886801</v>
       </c>
       <c r="W18" t="n">
-        <v>900</v>
+        <v>1940</v>
       </c>
       <c r="X18" t="n">
-        <v>370</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="AA18" t="n">
-        <v>1270</v>
+        <v>4070</v>
       </c>
       <c r="AB18" t="n">
-        <v>750</v>
+        <v>2400</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>21,0;31,1217;41,710</t>
+          <t>21,0;31,62526;41,49677</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>10562318.42809</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1908641.01129835</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2005624.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>575203.953685295</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15646951.09307365</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9112,80 +9560,104 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>289391.24752922</v>
+        <v>8899296.466768699</v>
       </c>
       <c r="U19" t="n">
-        <v>50420.23819486</v>
+        <v>1499721.49146315</v>
       </c>
       <c r="V19" t="n">
-        <v>29246.99211422</v>
+        <v>1077411.32439548</v>
       </c>
       <c r="W19" t="n">
-        <v>1100</v>
+        <v>1940</v>
       </c>
       <c r="X19" t="n">
-        <v>590</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="AA19" t="n">
-        <v>1940</v>
+        <v>4980</v>
       </c>
       <c r="AB19" t="n">
-        <v>1325</v>
+        <v>2400</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
       </c>
-      <c r="AH19" t="n">
-        <v>2</v>
-      </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>21,0;31,1639;41,1063</t>
+          <t>21,0;31,62526;41,49677</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>17143150.40471</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3096168.514743149</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3469133.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>575203.953685295</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>25459388.87313844</v>
       </c>
     </row>
     <row r="20">
@@ -9195,31 +9667,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9231,80 +9703,104 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>410611.81444576</v>
+        <v>219655.55674106</v>
       </c>
       <c r="U20" t="n">
-        <v>67279.9662757</v>
+        <v>40277.04984358</v>
       </c>
       <c r="V20" t="n">
-        <v>44454.8645248</v>
+        <v>20942.0896324</v>
       </c>
       <c r="W20" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>3090</v>
+        <v>1270</v>
       </c>
       <c r="AB20" t="n">
-        <v>2200</v>
+        <v>750</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>21,0;31,3144;41,2355</t>
+          <t>21,0;31,1217;41,710</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>526229.47372</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3014.4508695</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33824.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>12222.591458562</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>622726.7160480621</v>
       </c>
     </row>
     <row r="21">
@@ -9314,31 +9810,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9350,80 +9846,104 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>474726.17904569</v>
+        <v>289391.24752922</v>
       </c>
       <c r="U21" t="n">
-        <v>79563.93935300001</v>
+        <v>50420.23819486</v>
       </c>
       <c r="V21" t="n">
-        <v>53368.7675622</v>
+        <v>29246.99211422</v>
       </c>
       <c r="W21" t="n">
-        <v>1940</v>
+        <v>1100</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA21" t="n">
-        <v>3230</v>
+        <v>1940</v>
       </c>
       <c r="AB21" t="n">
-        <v>2400</v>
+        <v>1325</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>21,0;31,4233;41,3245</t>
+          <t>21,0;31,1639;41,1063</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>620814.72743</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>39695.19216155</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>67649.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>16304.476138969</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>812599.845730519</v>
       </c>
     </row>
     <row r="22">
@@ -9433,10 +9953,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9448,16 +9968,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9469,37 +9989,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>548801.334408</v>
+        <v>410611.81444576</v>
       </c>
       <c r="U22" t="n">
-        <v>96826.53834239999</v>
+        <v>67279.9662757</v>
       </c>
       <c r="V22" t="n">
-        <v>64580.84814287999</v>
+        <v>44454.8645248</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9508,41 +10028,65 @@
         <v>720</v>
       </c>
       <c r="AA22" t="n">
-        <v>3510</v>
+        <v>3090</v>
       </c>
       <c r="AB22" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>21,0;31,5147;41,4038</t>
+          <t>21,0;31,3144;41,2355</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>780849.1777</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>95832.93183729998</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>97518.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>30540.24322839</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1142283.05276569</v>
       </c>
     </row>
     <row r="23">
@@ -9552,10 +10096,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9570,13 +10114,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9588,10 +10132,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9602,23 +10146,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>701169.8238004501</v>
+        <v>474726.17904569</v>
       </c>
       <c r="U23" t="n">
-        <v>132213.47452355</v>
+        <v>79563.93935300001</v>
       </c>
       <c r="V23" t="n">
-        <v>87558.48367604001</v>
+        <v>53368.7675622</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9627,7 +10171,7 @@
         <v>720</v>
       </c>
       <c r="AA23" t="n">
-        <v>4070</v>
+        <v>3230</v>
       </c>
       <c r="AB23" t="n">
         <v>2400</v>
@@ -9636,32 +10180,342 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,4233;41,3245</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>851397.5200250001</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>154350.633812125</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>152526</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>40314.370226915</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1343111.77406404</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>102</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>548801.334408</v>
+      </c>
+      <c r="U24" t="n">
+        <v>96826.53834239999</v>
+      </c>
+      <c r="V24" t="n">
+        <v>64580.84814287999</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3510</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,5147;41,4038</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>963089.6291499999</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>174713.39526195</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>257621.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>48711.45138017</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1601468.32579212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
         <v>95</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="I25" t="n">
         <v>85</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="J25" t="n">
         <v>10</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>102</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>701169.8238004501</v>
+      </c>
+      <c r="U25" t="n">
+        <v>132213.47452355</v>
+      </c>
+      <c r="V25" t="n">
+        <v>87558.48367604001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4070</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
         <is>
           <t>21,0;31,7231;41,5865</t>
         </is>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>21,0;31,0;41,0</t>
         </is>
+      </c>
+      <c r="AL25" t="n">
+        <v>1196249.22963</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>217183.62260355</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>467803.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>67371.576916625</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2131528.079150175</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/102.xlsx
+++ b/opm_hero_property/heroes/102.xlsx
@@ -7813,17 +7813,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5294686.4545328</v>
+        <v>5640210.17448524</v>
       </c>
       <c r="U2" t="n">
-        <v>891175.1103816</v>
+        <v>939643.34491008</v>
       </c>
       <c r="V2" t="n">
-        <v>647464.1075472001</v>
+        <v>688391.34185728</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -7864,8 +7864,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,64556;41,54510</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11191816.66776</v>
       </c>
@@ -7885,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>915286.1354819119</v>
       </c>
       <c r="AS2" t="n">
-        <v>15181337.33456224</v>
+        <v>16096623.47004415</v>
       </c>
     </row>
     <row r="3">
@@ -7948,17 +7956,17 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>680870.7504856</v>
+        <v>721136.53189398</v>
       </c>
       <c r="U3" t="n">
-        <v>128958.0932392</v>
+        <v>134605.76832896</v>
       </c>
       <c r="V3" t="n">
-        <v>85441.0870416</v>
+        <v>90309.94813183999</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7999,8 +8007,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,7465;41,6435</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1267722.85972</v>
       </c>
@@ -8020,10 +8036,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>107230.690796604</v>
       </c>
       <c r="AS3" t="n">
-        <v>2076591.84432528</v>
+        <v>2183822.535121884</v>
       </c>
     </row>
     <row r="4">
@@ -8083,7 +8099,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
@@ -8218,7 +8234,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
@@ -8353,7 +8369,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
@@ -8488,17 +8504,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>60733.0884</v>
+        <v>73410.34278344001</v>
       </c>
       <c r="U7" t="n">
-        <v>9880.450000000001</v>
+        <v>11662.47083</v>
       </c>
       <c r="V7" t="n">
-        <v>5304.244000000001</v>
+        <v>6797.2668884</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -8539,8 +8555,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,1857;41,1551</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>115435.4964</v>
       </c>
@@ -8560,10 +8584,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>33558.07971874</v>
       </c>
       <c r="AS7" t="n">
-        <v>164150.0964</v>
+        <v>197708.17611874</v>
       </c>
     </row>
     <row r="8">
@@ -8623,17 +8647,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>60895.0607536</v>
+        <v>86249.56952048</v>
       </c>
       <c r="U8" t="n">
-        <v>9910.835800000001</v>
+        <v>13474.87746</v>
       </c>
       <c r="V8" t="n">
-        <v>5319.340976</v>
+        <v>8305.386752800001</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -8674,8 +8698,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,3716;41,3103</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>115435.4964</v>
       </c>
@@ -8695,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>67116.15943748</v>
       </c>
       <c r="AS8" t="n">
-        <v>164608.5383856</v>
+        <v>231724.69782308</v>
       </c>
     </row>
     <row r="9">
@@ -8758,7 +8790,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
@@ -8893,17 +8925,17 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>257821.7910392</v>
+        <v>271456.88508388</v>
       </c>
       <c r="U10" t="n">
-        <v>40223.256704</v>
+        <v>42137.1656544</v>
       </c>
       <c r="V10" t="n">
-        <v>25404.975132</v>
+        <v>26996.1243833</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -8944,8 +8976,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,2055;41,1697</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>521582.58895</v>
       </c>
@@ -8965,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>35990.173997415</v>
       </c>
       <c r="AS10" t="n">
-        <v>692564.8693058001</v>
+        <v>728555.0433032151</v>
       </c>
     </row>
     <row r="11">
@@ -9028,17 +9068,17 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>265246.6034312</v>
+        <v>333423.0736546</v>
       </c>
       <c r="U11" t="n">
-        <v>41504.063744</v>
+        <v>51073.608496</v>
       </c>
       <c r="V11" t="n">
-        <v>26199.396452</v>
+        <v>34158.1287618</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -9079,8 +9119,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,10280;41,8498</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>521582.58895</v>
       </c>
@@ -9100,10 +9148,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>179969.03979355</v>
       </c>
       <c r="AS11" t="n">
-        <v>713745.1728638001</v>
+        <v>893714.2126573501</v>
       </c>
     </row>
     <row r="12">
@@ -9163,17 +9211,17 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>272671.4158232</v>
+        <v>340847.8860466</v>
       </c>
       <c r="U12" t="n">
-        <v>42784.870784</v>
+        <v>52354.415536</v>
       </c>
       <c r="V12" t="n">
-        <v>26993.817772</v>
+        <v>34952.5500818</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
@@ -9214,8 +9262,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,10280;41,8498</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>521582.58895</v>
       </c>
@@ -9235,10 +9291,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>179969.03979355</v>
       </c>
       <c r="AS12" t="n">
-        <v>734925.4764218</v>
+        <v>914894.51621535</v>
       </c>
     </row>
     <row r="13">
@@ -9298,17 +9354,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>280096.2282152</v>
+        <v>414908.52009066</v>
       </c>
       <c r="U13" t="n">
-        <v>44065.677824</v>
+        <v>62987.03013119999</v>
       </c>
       <c r="V13" t="n">
-        <v>27788.239092</v>
+        <v>43555.7636608</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
@@ -9349,8 +9405,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,20236;41,16770</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>521582.58895</v>
       </c>
@@ -9370,10 +9434,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>356032.88906574</v>
       </c>
       <c r="AS13" t="n">
-        <v>756105.7799798001</v>
+        <v>1112138.66904554</v>
       </c>
     </row>
     <row r="14">
@@ -9433,17 +9497,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>280096.2282152</v>
+        <v>348272.6984386</v>
       </c>
       <c r="U14" t="n">
-        <v>44065.677824</v>
+        <v>53635.222576</v>
       </c>
       <c r="V14" t="n">
-        <v>27788.239092</v>
+        <v>35746.9714018</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
@@ -9484,8 +9548,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,10280;41,8498</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>521582.58895</v>
       </c>
@@ -9505,10 +9577,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>179969.03979355</v>
       </c>
       <c r="AS14" t="n">
-        <v>755930.7799798001</v>
+        <v>935899.8197733499</v>
       </c>
     </row>
     <row r="15">
@@ -9568,17 +9640,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>418382.3051376</v>
+        <v>503876.21410864</v>
       </c>
       <c r="U15" t="n">
-        <v>67292.03014640001</v>
+        <v>79291.27087304</v>
       </c>
       <c r="V15" t="n">
-        <v>46376.46823999999</v>
+        <v>56420.46858199999</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
@@ -9619,8 +9691,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,13110;41,10940</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>801831.0547399999</v>
       </c>
@@ -9640,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>226041.671951356</v>
       </c>
       <c r="AS15" t="n">
-        <v>1161711.00552776</v>
+        <v>1387752.677479116</v>
       </c>
     </row>
     <row r="16">
@@ -9703,17 +9783,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>418382.3051376</v>
+        <v>518125.03227048</v>
       </c>
       <c r="U16" t="n">
-        <v>67292.03014640001</v>
+        <v>81291.14432748001</v>
       </c>
       <c r="V16" t="n">
-        <v>46376.46823999999</v>
+        <v>58098.078994</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
@@ -9754,8 +9834,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,15296;41,12763</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>801831.0547399999</v>
       </c>
@@ -9775,10 +9863,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>263735.876817832</v>
       </c>
       <c r="AS16" t="n">
-        <v>1161886.00552776</v>
+        <v>1425621.882345592</v>
       </c>
     </row>
     <row r="17">
@@ -9838,17 +9926,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1058474.8444612</v>
+        <v>1189857.03345367</v>
       </c>
       <c r="U17" t="n">
-        <v>173359.3080368</v>
+        <v>191799.5038478</v>
       </c>
       <c r="V17" t="n">
-        <v>129991.092</v>
+        <v>145791.4326</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
@@ -9889,8 +9977,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,21137;41,18204</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1833646.26238</v>
       </c>
@@ -9910,10 +10006,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>349471.49853837</v>
       </c>
       <c r="AS17" t="n">
-        <v>3015326.848915121</v>
+        <v>3364798.34745349</v>
       </c>
     </row>
     <row r="18">
@@ -9973,17 +10069,17 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5294686.4545328</v>
+        <v>5640210.17448524</v>
       </c>
       <c r="U18" t="n">
-        <v>891175.1103816</v>
+        <v>939643.34491008</v>
       </c>
       <c r="V18" t="n">
-        <v>647464.1075472001</v>
+        <v>688391.34185728</v>
       </c>
       <c r="W18" t="n">
         <v>1940</v>
@@ -10024,8 +10120,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,64556;41,54510</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11191816.66776</v>
       </c>
@@ -10045,10 +10149,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>915286.1354819119</v>
       </c>
       <c r="AS18" t="n">
-        <v>15181337.33456224</v>
+        <v>16096623.47004415</v>
       </c>
     </row>
     <row r="19">
@@ -10108,17 +10212,17 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8753831.971602399</v>
+        <v>9099355.691554839</v>
       </c>
       <c r="U19" t="n">
-        <v>1474088.8729464</v>
+        <v>1522557.10747488</v>
       </c>
       <c r="V19" t="n">
-        <v>1064338.1848704</v>
+        <v>1105265.41918048</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
@@ -10159,8 +10263,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,64556;41,54510</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18163767.84514</v>
       </c>
@@ -10180,10 +10292,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>915286.1354819119</v>
       </c>
       <c r="AS19" t="n">
-        <v>25061888.75793736</v>
+        <v>25977174.89341927</v>
       </c>
     </row>
     <row r="20">
@@ -10243,17 +10355,17 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>224033.3043804</v>
+        <v>231412.20072997</v>
       </c>
       <c r="U20" t="n">
-        <v>40444.1701976</v>
+        <v>41580.74838478</v>
       </c>
       <c r="V20" t="n">
-        <v>21971.4171936</v>
+        <v>22669.39459512</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -10294,8 +10406,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,1250;41,769</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>550716.4617600001</v>
       </c>
@@ -10315,10 +10435,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>19234.655899852</v>
       </c>
       <c r="AS20" t="n">
-        <v>634176.22760704</v>
+        <v>653410.883506892</v>
       </c>
     </row>
     <row r="21">
@@ -10378,17 +10498,17 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>290956.5749368</v>
+        <v>300831.1919021</v>
       </c>
       <c r="U21" t="n">
-        <v>50200.7856784</v>
+        <v>51660.13930423999</v>
       </c>
       <c r="V21" t="n">
-        <v>29993.9379088</v>
+        <v>30995.98190844</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -10429,8 +10549,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,1686;41,1157</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>652152.04894</v>
       </c>
@@ -10450,10 +10578,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>25705.909981526</v>
       </c>
       <c r="AS21" t="n">
-        <v>816945.8890933599</v>
+        <v>842651.799074886</v>
       </c>
     </row>
     <row r="22">
@@ -10513,17 +10641,17 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>405841.0943848</v>
+        <v>424368.26884816</v>
       </c>
       <c r="U22" t="n">
-        <v>66168.49180640001</v>
+        <v>68780.93609296001</v>
       </c>
       <c r="V22" t="n">
-        <v>44423.184484</v>
+        <v>46505.2646908</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
@@ -10564,8 +10692,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,3241;41,2579</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>824695.20169</v>
       </c>
@@ -10585,10 +10721,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>48525.001229724</v>
       </c>
       <c r="AS22" t="n">
-        <v>1129660.99863196</v>
+        <v>1178185.999861684</v>
       </c>
     </row>
     <row r="23">
@@ -10648,17 +10784,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>462302.2423352</v>
+        <v>486686.79090312</v>
       </c>
       <c r="U23" t="n">
-        <v>77569.52896719999</v>
+        <v>80995.21887459999</v>
       </c>
       <c r="V23" t="n">
-        <v>52173.54468</v>
+        <v>54971.166055</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
@@ -10699,8 +10835,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,4367;41,3557</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>900406.5161199999</v>
       </c>
@@ -10720,10 +10864,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>64108.13183522999</v>
       </c>
       <c r="AS23" t="n">
-        <v>1310053.87411888</v>
+        <v>1374162.00595411</v>
       </c>
     </row>
     <row r="24">
@@ -10783,17 +10927,17 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>534171.57228</v>
+        <v>563501.436194</v>
       </c>
       <c r="U24" t="n">
-        <v>94461.6385416</v>
+        <v>98578.45325412</v>
       </c>
       <c r="V24" t="n">
-        <v>63124.638036</v>
+        <v>66563.2929041</v>
       </c>
       <c r="W24" t="n">
         <v>1940</v>
@@ -10834,8 +10978,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,5313;41,4430</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1019791.81221</v>
       </c>
@@ -10855,10 +11007,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>77508.150921963</v>
       </c>
       <c r="AS24" t="n">
-        <v>1562147.54692404</v>
+        <v>1639655.697846003</v>
       </c>
     </row>
     <row r="25">
@@ -10918,17 +11070,17 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>680870.7504856</v>
+        <v>721136.53189398</v>
       </c>
       <c r="U25" t="n">
-        <v>128958.0932392</v>
+        <v>134605.76832896</v>
       </c>
       <c r="V25" t="n">
-        <v>85441.0870416</v>
+        <v>90309.94813183999</v>
       </c>
       <c r="W25" t="n">
         <v>1940</v>
@@ -10969,8 +11121,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,7465;41,6435</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1267722.85972</v>
       </c>
@@ -10990,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>107230.690796604</v>
       </c>
       <c r="AS25" t="n">
-        <v>2076591.84432528</v>
+        <v>2183822.535121884</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/102.xlsx
+++ b/opm_hero_property/heroes/102.xlsx
@@ -7521,7 +7521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7717,40 +7717,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7790,7 +7810,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>102</v>
@@ -7817,13 +7837,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5640210.17448524</v>
+        <v>6561201.35986124</v>
       </c>
       <c r="U2" t="n">
-        <v>939643.34491008</v>
+        <v>1097566.42038208</v>
       </c>
       <c r="V2" t="n">
-        <v>688391.34185728</v>
+        <v>805812.99008128</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -7862,7 +7882,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7875,28 +7895,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11191816.66776</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1388732.96680224</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2900903.7334208</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1790555.55</v>
+      </c>
+      <c r="AU2" t="n">
         <v>915286.1354819119</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16096623.47004415</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18782458.35346495</v>
       </c>
     </row>
     <row r="3">
@@ -7933,7 +7961,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>102</v>
@@ -7960,13 +7988,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>721136.53189398</v>
+        <v>824855.53904598</v>
       </c>
       <c r="U3" t="n">
-        <v>134605.76832896</v>
+        <v>152390.03119296</v>
       </c>
       <c r="V3" t="n">
-        <v>90309.94813183999</v>
+        <v>103808.74080384</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -8005,7 +8033,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -8018,28 +8046,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1267722.85972</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>158145.33460528</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>569155.4287776001</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>202696.65</v>
+      </c>
+      <c r="AU3" t="n">
         <v>107230.690796604</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2183822.535121884</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2487871.013899484</v>
       </c>
     </row>
     <row r="4">
@@ -8076,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>102</v>
@@ -8103,13 +8139,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7920.8304</v>
+        <v>8405.830399999999</v>
       </c>
       <c r="U4" t="n">
-        <v>1542.5444</v>
+        <v>1625.5444</v>
       </c>
       <c r="V4" t="n">
-        <v>563.4643</v>
+        <v>624.4643</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -8148,25 +8184,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19034.906485</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -8174,7 +8206,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23533.806485</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1408.45</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24942.256485</v>
       </c>
     </row>
     <row r="5">
@@ -8211,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>102</v>
@@ -8238,13 +8282,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>21269.1298</v>
+        <v>35526.1298</v>
       </c>
       <c r="U5" t="n">
-        <v>3847.2874</v>
+        <v>6291.2874</v>
       </c>
       <c r="V5" t="n">
-        <v>1692.878</v>
+        <v>3509.878</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -8283,25 +8327,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>48339.36136000001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -8309,7 +8349,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60246.16136</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41568.35000000001</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>101814.51136</v>
       </c>
     </row>
     <row r="6">
@@ -8346,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>102</v>
@@ -8373,13 +8425,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>60733.0884</v>
+        <v>121856.0884</v>
       </c>
       <c r="U6" t="n">
-        <v>9880.450000000001</v>
+        <v>20360.45</v>
       </c>
       <c r="V6" t="n">
-        <v>5304.244000000001</v>
+        <v>13096.244</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -8418,33 +8470,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>115435.4964</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9640.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>163975.0964</v>
+      <c r="AT6" t="n">
+        <v>178239</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>342214.0964</v>
       </c>
     </row>
     <row r="7">
@@ -8481,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>102</v>
@@ -8508,13 +8568,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>73410.34278344001</v>
+        <v>134533.34278344</v>
       </c>
       <c r="U7" t="n">
-        <v>11662.47083</v>
+        <v>22142.47083</v>
       </c>
       <c r="V7" t="n">
-        <v>6797.2668884</v>
+        <v>14589.2668884</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -8553,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -8566,28 +8626,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>115435.4964</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>178239</v>
+      </c>
+      <c r="AU7" t="n">
         <v>33558.07971874</v>
       </c>
-      <c r="AS7" t="n">
-        <v>197708.17611874</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>375947.1761187401</v>
       </c>
     </row>
     <row r="8">
@@ -8624,7 +8692,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>102</v>
@@ -8651,13 +8719,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>86249.56952048</v>
+        <v>147372.56952048</v>
       </c>
       <c r="U8" t="n">
-        <v>13474.87746</v>
+        <v>23954.87746</v>
       </c>
       <c r="V8" t="n">
-        <v>8305.386752800001</v>
+        <v>16097.3867528</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -8696,7 +8764,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8709,28 +8777,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>115435.4964</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>458.4419856</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9815.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>178239</v>
+      </c>
+      <c r="AU8" t="n">
         <v>67116.15943748</v>
       </c>
-      <c r="AS8" t="n">
-        <v>231724.69782308</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>409963.69782308</v>
       </c>
     </row>
     <row r="9">
@@ -8767,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>102</v>
@@ -8794,31 +8870,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>257079.3098</v>
+        <v>438946.512898</v>
       </c>
       <c r="U9" t="n">
-        <v>40095.176</v>
+        <v>69916.37776</v>
       </c>
       <c r="V9" t="n">
-        <v>25325.533</v>
+        <v>47839.13833</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>3090</v>
+        <v>3100</v>
       </c>
       <c r="AB9" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8839,33 +8915,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>521582.58895</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>690481.83895</v>
+        <v>44826.1758895</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>417651.55</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1207688.5648395</v>
       </c>
     </row>
     <row r="10">
@@ -8902,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>102</v>
@@ -8929,31 +9013,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>271456.88508388</v>
+        <v>511080.8817691538</v>
       </c>
       <c r="U10" t="n">
-        <v>42137.1656544</v>
+        <v>81270.4366413184</v>
       </c>
       <c r="V10" t="n">
-        <v>26996.1243833</v>
+        <v>55898.1048481394</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>3090</v>
+        <v>3100</v>
       </c>
       <c r="AB10" t="n">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8974,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8987,28 +9071,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>521582.58895</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2083.0303558</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44826.1758895</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>417651.55</v>
+      </c>
+      <c r="AU10" t="n">
         <v>35990.173997415</v>
       </c>
-      <c r="AS10" t="n">
-        <v>728555.0433032151</v>
+      <c r="AV10" t="n">
+        <v>253090.8282783374</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1404504.997471052</v>
       </c>
     </row>
     <row r="11">
@@ -9045,7 +9141,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>102</v>
@@ -9072,31 +9168,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>333423.0736546</v>
+        <v>638337.1817341468</v>
       </c>
       <c r="U11" t="n">
-        <v>51073.608496</v>
+        <v>99239.27942521599</v>
       </c>
       <c r="V11" t="n">
-        <v>34158.1287618</v>
+        <v>70315.02530545239</v>
       </c>
       <c r="W11" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>3090</v>
+        <v>3100</v>
       </c>
       <c r="AB11" t="n">
-        <v>2000</v>
+        <v>2040</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -9117,7 +9213,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -9130,28 +9226,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>521582.58895</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>23263.3339138</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44826.1758895</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>417651.55</v>
+      </c>
+      <c r="AU11" t="n">
         <v>179969.03979355</v>
       </c>
-      <c r="AS11" t="n">
-        <v>893714.2126573501</v>
+      <c r="AV11" t="n">
+        <v>422420.2667276385</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1738993.605274488</v>
       </c>
     </row>
     <row r="12">
@@ -9188,7 +9296,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>102</v>
@@ -9215,31 +9323,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>340847.8860466</v>
+        <v>728433.5620166365</v>
       </c>
       <c r="U12" t="n">
-        <v>52354.415536</v>
+        <v>109891.881259216</v>
       </c>
       <c r="V12" t="n">
-        <v>34952.5500818</v>
+        <v>81920.11793909559</v>
       </c>
       <c r="W12" t="n">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>3090</v>
+        <v>3110</v>
       </c>
       <c r="AB12" t="n">
-        <v>2200</v>
+        <v>2280</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -9260,7 +9368,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -9273,28 +9381,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>521582.58895</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>44443.6374718</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44826.1758895</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>417651.55</v>
+      </c>
+      <c r="AU12" t="n">
         <v>179969.03979355</v>
       </c>
-      <c r="AS12" t="n">
-        <v>914894.51621535</v>
+      <c r="AV12" t="n">
+        <v>632038.5787501765</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1969792.220855027</v>
       </c>
     </row>
     <row r="13">
@@ -9331,7 +9451,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>102</v>
@@ -9358,31 +9478,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>414908.52009066</v>
+        <v>900121.4853756219</v>
       </c>
       <c r="U13" t="n">
-        <v>62987.03013119999</v>
+        <v>133596.0447609152</v>
       </c>
       <c r="V13" t="n">
-        <v>43555.7636608</v>
+        <v>101738.1384884136</v>
       </c>
       <c r="W13" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>3090</v>
+        <v>3140</v>
       </c>
       <c r="AB13" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -9403,7 +9523,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -9416,28 +9536,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>521582.58895</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>65623.9410298</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39618.60000000001</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44826.1758895</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>417651.55</v>
+      </c>
+      <c r="AU13" t="n">
         <v>356032.88906574</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1112138.66904554</v>
+      <c r="AV13" t="n">
+        <v>884704.6955992749</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2419702.490534315</v>
       </c>
     </row>
     <row r="14">
@@ -9474,7 +9606,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>102</v>
@@ -9501,31 +9633,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>348272.6984386</v>
+        <v>965203.7048103568</v>
       </c>
       <c r="U14" t="n">
-        <v>53635.222576</v>
+        <v>138895.794520064</v>
       </c>
       <c r="V14" t="n">
-        <v>35746.9714018</v>
+        <v>104043.0865733632</v>
       </c>
       <c r="W14" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>3020</v>
+        <v>3070</v>
       </c>
       <c r="AB14" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -9546,7 +9678,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -9559,28 +9691,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>521582.58895</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>65623.9410298</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39443.60000000001</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44651.1758895</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>417651.55</v>
+      </c>
+      <c r="AU14" t="n">
         <v>179969.03979355</v>
       </c>
-      <c r="AS14" t="n">
-        <v>935899.8197733499</v>
+      <c r="AV14" t="n">
+        <v>1175672.489132787</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2534431.434795637</v>
       </c>
     </row>
     <row r="15">
@@ -9617,7 +9761,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>102</v>
@@ -9644,31 +9788,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>503876.21410864</v>
+        <v>1520046.704141976</v>
       </c>
       <c r="U15" t="n">
-        <v>79291.27087304</v>
+        <v>231973.9257461928</v>
       </c>
       <c r="V15" t="n">
-        <v>56420.46858199999</v>
+        <v>173688.655794626</v>
       </c>
       <c r="W15" t="n">
-        <v>1940</v>
+        <v>2040</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>3160</v>
+        <v>3260</v>
       </c>
       <c r="AB15" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9689,7 +9833,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9702,28 +9846,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>801831.0547399999</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>100374.75078776</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>112125.4</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128145.5210948</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>764175.55</v>
+      </c>
+      <c r="AU15" t="n">
         <v>226041.671951356</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1387752.677479116</v>
+      <c r="AV15" t="n">
+        <v>1964977.214035889</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4132925.562609806</v>
       </c>
     </row>
     <row r="16">
@@ -9760,7 +9916,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>102</v>
@@ -9787,31 +9943,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>518125.03227048</v>
+        <v>1563537.47282107</v>
       </c>
       <c r="U16" t="n">
-        <v>81291.14432748001</v>
+        <v>238396.4773008353</v>
       </c>
       <c r="V16" t="n">
-        <v>58098.078994</v>
+        <v>178638.012481446</v>
       </c>
       <c r="W16" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>3230</v>
+        <v>3430</v>
       </c>
       <c r="AB16" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9832,7 +9988,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9845,28 +10001,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>801831.0547399999</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>100374.75078776</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112300.4</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128320.5210948</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>764175.55</v>
+      </c>
+      <c r="AU16" t="n">
         <v>263735.876817832</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1425621.882345592</v>
+      <c r="AV16" t="n">
+        <v>2044748.184524756</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4250565.737965149</v>
       </c>
     </row>
     <row r="17">
@@ -9903,7 +10071,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>102</v>
@@ -9930,31 +10098,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1189857.03345367</v>
+        <v>2826150.116078078</v>
       </c>
       <c r="U17" t="n">
-        <v>191799.5038478</v>
+        <v>430743.8322748577</v>
       </c>
       <c r="V17" t="n">
-        <v>145791.4326</v>
+        <v>336283.9907872</v>
       </c>
       <c r="W17" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>3510</v>
+        <v>3710</v>
       </c>
       <c r="AB17" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9975,7 +10143,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9988,28 +10156,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1833646.26238</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>228319.83653512</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>683503.6000000001</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>756816.4504952</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1220968.15</v>
+      </c>
+      <c r="AU17" t="n">
         <v>349471.49853837</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3364798.34745349</v>
+      <c r="AV17" t="n">
+        <v>3088460.157852306</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7747539.505800996</v>
       </c>
     </row>
     <row r="18">
@@ -10046,7 +10226,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>102</v>
@@ -10073,31 +10253,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5640210.17448524</v>
+        <v>9798999.833757373</v>
       </c>
       <c r="U18" t="n">
-        <v>939643.34491008</v>
+        <v>1495622.857987165</v>
       </c>
       <c r="V18" t="n">
-        <v>688391.34185728</v>
+        <v>1124060.666910871</v>
       </c>
       <c r="W18" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>4070</v>
+        <v>4270</v>
       </c>
       <c r="AB18" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -10118,7 +10298,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -10131,28 +10311,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11191816.66776</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1388732.96680224</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2005624.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2900903.7334208</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1790555.55</v>
+      </c>
+      <c r="AU18" t="n">
         <v>915286.1354819119</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16096623.47004415</v>
+      <c r="AV18" t="n">
+        <v>7816712.035141369</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26599170.38860632</v>
       </c>
     </row>
     <row r="19">
@@ -10189,7 +10381,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>102</v>
@@ -10216,31 +10408,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9099355.691554839</v>
+        <v>16664018.65169469</v>
       </c>
       <c r="U19" t="n">
-        <v>1522557.10747488</v>
+        <v>2658227.102249618</v>
       </c>
       <c r="V19" t="n">
-        <v>1105265.41918048</v>
+        <v>1991404.301406648</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>4980</v>
+        <v>5180</v>
       </c>
       <c r="AB19" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -10261,7 +10453,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -10274,28 +10466,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18163767.84514</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2253254.91279736</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3469133.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6193574.626771</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1790555.55</v>
+      </c>
+      <c r="AU19" t="n">
         <v>915286.1354819119</v>
       </c>
-      <c r="AS19" t="n">
-        <v>25977174.89341927</v>
+      <c r="AV19" t="n">
+        <v>15983487.52011501</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46475659.39030528</v>
       </c>
     </row>
     <row r="20">
@@ -10332,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>102</v>
@@ -10359,13 +10563,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>231412.20072997</v>
+        <v>238295.20072997</v>
       </c>
       <c r="U20" t="n">
-        <v>41580.74838478</v>
+        <v>42760.74838478</v>
       </c>
       <c r="V20" t="n">
-        <v>22669.39459512</v>
+        <v>23564.39459512</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -10404,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -10417,28 +10621,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>550716.4617600001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2199.56584704</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33824.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20171.25</v>
+      </c>
+      <c r="AU20" t="n">
         <v>19234.655899852</v>
       </c>
-      <c r="AS20" t="n">
-        <v>653410.883506892</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>673582.133506892</v>
       </c>
     </row>
     <row r="21">
@@ -10475,7 +10687,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>102</v>
@@ -10502,13 +10714,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>300831.1919021</v>
+        <v>315035.4675241</v>
       </c>
       <c r="U21" t="n">
-        <v>51660.13930423999</v>
+        <v>54116.02614023999</v>
       </c>
       <c r="V21" t="n">
-        <v>30995.98190844</v>
+        <v>32798.62116044</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -10547,7 +10759,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -10560,28 +10772,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>652152.04894</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>29008.39015336</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>67649.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>74162.8704894</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35001.8</v>
+      </c>
+      <c r="AU21" t="n">
         <v>25705.909981526</v>
       </c>
-      <c r="AS21" t="n">
-        <v>842651.799074886</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>884166.869564286</v>
       </c>
     </row>
     <row r="22">
@@ -10618,7 +10838,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>102</v>
@@ -10645,31 +10865,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>424368.26884816</v>
+        <v>554600.8775718639</v>
       </c>
       <c r="U22" t="n">
-        <v>68780.93609296001</v>
+        <v>87525.69960876576</v>
       </c>
       <c r="V22" t="n">
-        <v>46505.2646908</v>
+        <v>61106.7907696672</v>
       </c>
       <c r="W22" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>3090</v>
+        <v>3140</v>
       </c>
       <c r="AB22" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10690,7 +10910,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10703,28 +10923,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>824695.20169</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>69905.09694196</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>97518.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105757.1020169</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47275.75</v>
+      </c>
+      <c r="AU22" t="n">
         <v>48525.001229724</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1178185.999861684</v>
+      <c r="AV22" t="n">
+        <v>288615.7999193501</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1522316.251797934</v>
       </c>
     </row>
     <row r="23">
@@ -10761,7 +10993,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>102</v>
@@ -10788,31 +11020,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>486686.79090312</v>
+        <v>709405.3312951915</v>
       </c>
       <c r="U23" t="n">
-        <v>80995.21887459999</v>
+        <v>116734.9400157102</v>
       </c>
       <c r="V23" t="n">
-        <v>54971.166055</v>
+        <v>80326.72239106501</v>
       </c>
       <c r="W23" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>3230</v>
+        <v>3430</v>
       </c>
       <c r="AB23" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10833,7 +11065,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10846,28 +11078,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>900406.5161199999</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>112598.10799888</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>152526</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>170517.6303224</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86504</v>
+      </c>
+      <c r="AU23" t="n">
         <v>64108.13183522999</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1374162.00595411</v>
+      <c r="AV23" t="n">
+        <v>513021.4348757057</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1991679.071152216</v>
       </c>
     </row>
     <row r="24">
@@ -10904,7 +11148,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>102</v>
@@ -10931,31 +11175,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>563501.436194</v>
+        <v>893829.7242628839</v>
       </c>
       <c r="U24" t="n">
-        <v>98578.45325412</v>
+        <v>152426.7971602749</v>
       </c>
       <c r="V24" t="n">
-        <v>66563.2929041</v>
+        <v>105008.1390570303</v>
       </c>
       <c r="W24" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>3510</v>
+        <v>3710</v>
       </c>
       <c r="AB24" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10976,7 +11220,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10989,28 +11233,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1019791.81221</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>127401.88471404</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>257621.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>298379.8724884</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>138211.6</v>
+      </c>
+      <c r="AU24" t="n">
         <v>77508.150921963</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1639655.697846003</v>
+      <c r="AV24" t="n">
+        <v>746369.4539123017</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2564995.424246705</v>
       </c>
     </row>
     <row r="25">
@@ -11047,7 +11303,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>102</v>
@@ -11074,31 +11330,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>721136.53189398</v>
+        <v>1531032.274100418</v>
       </c>
       <c r="U25" t="n">
-        <v>134605.76832896</v>
+        <v>262416.0995729145</v>
       </c>
       <c r="V25" t="n">
-        <v>90309.94813183999</v>
+        <v>182453.9889799411</v>
       </c>
       <c r="W25" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>4070</v>
+        <v>4270</v>
       </c>
       <c r="AB25" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -11119,7 +11375,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -11132,28 +11388,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1267722.85972</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>158145.33460528</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>467803.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>569155.4287776001</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>202696.65</v>
+      </c>
+      <c r="AU25" t="n">
         <v>107230.690796604</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2183822.535121884</v>
+      <c r="AV25" t="n">
+        <v>1919966.783888706</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4407837.79778819</v>
       </c>
     </row>
   </sheetData>
